--- a/data/horarios/horarios-21-04.raw.xlsx
+++ b/data/horarios/horarios-21-04.raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F16F3BB-C54A-4FC4-9E5E-AA43F2B2837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275BFD1-C81B-46A9-A31B-C8B1EEAD4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1327F3A6-D9A6-461D-B625-CF0BE3FF492C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1327F3A6-D9A6-461D-B625-CF0BE3FF492C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,29 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}" name="Table2" displayName="Table2" ref="A1:R512" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:R512" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}"/>
+  <autoFilter ref="A1:R512" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="C"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="SJL 01-M"/>
+        <filter val="SJL 01-T"/>
+        <filter val="SJL 02-T"/>
+        <filter val="SJL 03-T"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A239:R410">
+    <sortCondition ref="D1:D512"/>
+  </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D5E142BD-4454-4CEC-9557-F2F7920D14BB}" name="PLAN DE_x000a_ESTUDIOS" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{4BD466FC-66D1-4FCA-93F0-DA278157327A}" name="CICLO" dataCellStyle="Normal"/>
@@ -1763,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76592998-DD56-44F1-8DD2-864C0839338E}">
   <dimension ref="A1:R512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q366" sqref="Q366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -2016,7 +2038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -2060,7 +2082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -2104,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -2148,7 +2170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2192,7 +2214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -2315,7 +2337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -2397,7 +2419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -2441,7 +2463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -2482,7 +2504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -2523,7 +2545,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -2570,7 +2592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -2617,7 +2639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -2664,7 +2686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -2708,7 +2730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -2796,7 +2818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -2840,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -2887,7 +2909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2023</v>
       </c>
@@ -2934,7 +2956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -2978,7 +3000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -3022,7 +3044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2023</v>
       </c>
@@ -3066,7 +3088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -3110,7 +3132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -3154,7 +3176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -3198,7 +3220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -3242,7 +3264,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -3286,7 +3308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -3330,7 +3352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -3374,7 +3396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -3418,7 +3440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -3462,7 +3484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -3503,7 +3525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -3547,7 +3569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -3591,7 +3613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -3635,7 +3657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -3679,7 +3701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -3723,7 +3745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -3767,7 +3789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -3811,7 +3833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -3855,7 +3877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -3899,7 +3921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -3946,7 +3968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -3993,7 +4015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -4037,7 +4059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -4125,7 +4147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -4169,7 +4191,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -4213,7 +4235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -4257,7 +4279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -4301,7 +4323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2022</v>
       </c>
@@ -4345,7 +4367,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -4389,7 +4411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -4433,7 +4455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2022</v>
       </c>
@@ -4477,7 +4499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -4521,7 +4543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -4565,7 +4587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -4609,7 +4631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -4656,7 +4678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -4791,7 +4813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2025</v>
       </c>
@@ -4835,7 +4857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -4879,7 +4901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -4923,7 +4945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -4967,7 +4989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -5011,7 +5033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -5055,7 +5077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -5099,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -5143,7 +5165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -5187,7 +5209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2022</v>
       </c>
@@ -5231,7 +5253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2023</v>
       </c>
@@ -5275,7 +5297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -5319,7 +5341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -5363,7 +5385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -5407,7 +5429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2022</v>
       </c>
@@ -5451,7 +5473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -5495,7 +5517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -5539,7 +5561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2022</v>
       </c>
@@ -5583,7 +5605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2022</v>
       </c>
@@ -5627,7 +5649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2022</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2022</v>
       </c>
@@ -5715,7 +5737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2022</v>
       </c>
@@ -5759,7 +5781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -5803,7 +5825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -5847,7 +5869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2022</v>
       </c>
@@ -5894,7 +5916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2022</v>
       </c>
@@ -5938,7 +5960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2023</v>
       </c>
@@ -5982,7 +6004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -5990,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D96">
-        <v>111145</v>
+        <v>113145</v>
       </c>
       <c r="E96" t="s">
         <v>142</v>
@@ -6011,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
@@ -6019,14 +6041,11 @@
       <c r="L96" t="s">
         <v>173</v>
       </c>
-      <c r="N96" t="s">
-        <v>68</v>
-      </c>
-      <c r="P96" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -6034,13 +6053,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D97">
-        <v>112145</v>
+        <v>113144</v>
       </c>
       <c r="E97" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -6055,19 +6074,19 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="L97" t="s">
-        <v>173</v>
-      </c>
-      <c r="O97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="N97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -6078,10 +6097,10 @@
         <v>40</v>
       </c>
       <c r="D98">
-        <v>113145</v>
+        <v>113143</v>
       </c>
       <c r="E98" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -6102,13 +6121,16 @@
         <v>21</v>
       </c>
       <c r="L98" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="M98" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="O98" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2022</v>
       </c>
@@ -6152,7 +6174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2022</v>
       </c>
@@ -6196,7 +6218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -6240,7 +6262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2022</v>
       </c>
@@ -6281,7 +6303,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2022</v>
       </c>
@@ -6325,7 +6347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2022</v>
       </c>
@@ -6366,7 +6388,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2022</v>
       </c>
@@ -6410,7 +6432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -6454,7 +6476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2022</v>
       </c>
@@ -6498,7 +6520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2022</v>
       </c>
@@ -6542,7 +6564,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -6586,7 +6608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -6630,7 +6652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -6674,7 +6696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -6718,7 +6740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -6762,7 +6784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -6770,40 +6792,40 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D114">
-        <v>111143</v>
+        <v>113142</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114">
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K114" t="s">
         <v>21</v>
       </c>
       <c r="L114" t="s">
-        <v>196</v>
-      </c>
-      <c r="N114" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="P114" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -6847,7 +6869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -6891,7 +6913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2022</v>
       </c>
@@ -6935,7 +6957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -6979,7 +7001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2023</v>
       </c>
@@ -7023,7 +7045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -7031,40 +7053,40 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D120">
-        <v>111146</v>
+        <v>113149</v>
       </c>
       <c r="E120" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
       </c>
       <c r="L120" t="s">
-        <v>202</v>
+        <v>371</v>
       </c>
       <c r="O120" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -7072,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D121">
-        <v>112146</v>
+        <v>113146</v>
       </c>
       <c r="E121" t="s">
         <v>201</v>
@@ -7093,19 +7115,19 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K121" t="s">
         <v>21</v>
       </c>
       <c r="L121" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q121" t="s">
+        <v>386</v>
+      </c>
+      <c r="R121" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -7149,7 +7171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -7193,7 +7215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -7237,7 +7259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2022</v>
       </c>
@@ -7281,7 +7303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -7325,7 +7347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -7366,7 +7388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -7407,7 +7429,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2022</v>
       </c>
@@ -7451,7 +7473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -7495,7 +7517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -7539,7 +7561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -7583,7 +7605,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -7624,7 +7646,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -7668,7 +7690,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -7712,7 +7734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -7756,7 +7778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2022</v>
       </c>
@@ -7800,7 +7822,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -7847,7 +7869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2022</v>
       </c>
@@ -7891,7 +7913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -7935,7 +7957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2025</v>
       </c>
@@ -7979,7 +8001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -8023,7 +8045,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -8067,7 +8089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -8111,7 +8133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -8155,7 +8177,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -8199,7 +8221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -8243,7 +8265,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -8284,7 +8306,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -8328,7 +8350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -8372,7 +8394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -8416,7 +8438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2022</v>
       </c>
@@ -8460,7 +8482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -8504,7 +8526,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -8548,7 +8570,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2018</v>
       </c>
@@ -8592,7 +8614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2018</v>
       </c>
@@ -8636,7 +8658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2022</v>
       </c>
@@ -8680,7 +8702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -8724,7 +8746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2022</v>
       </c>
@@ -8768,7 +8790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -8776,13 +8798,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D160">
-        <v>112144</v>
+        <v>113147</v>
       </c>
       <c r="E160" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F160">
         <v>4</v>
@@ -8797,19 +8819,22 @@
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K160" t="s">
         <v>21</v>
       </c>
       <c r="L160" t="s">
-        <v>236</v>
-      </c>
-      <c r="R160" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="N160" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2025</v>
       </c>
@@ -8853,7 +8878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -8864,10 +8889,10 @@
         <v>40</v>
       </c>
       <c r="D162">
-        <v>113144</v>
+        <v>113148</v>
       </c>
       <c r="E162" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F162">
         <v>4</v>
@@ -8888,13 +8913,13 @@
         <v>21</v>
       </c>
       <c r="L162" t="s">
-        <v>236</v>
-      </c>
-      <c r="N162" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2022</v>
       </c>
@@ -8938,7 +8963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2022</v>
       </c>
@@ -8982,7 +9007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -9026,7 +9051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2022</v>
       </c>
@@ -9070,7 +9095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -9114,7 +9139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2022</v>
       </c>
@@ -9158,7 +9183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2022</v>
       </c>
@@ -9202,7 +9227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2022</v>
       </c>
@@ -9246,7 +9271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2022</v>
       </c>
@@ -9290,7 +9315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2022</v>
       </c>
@@ -9331,7 +9356,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2022</v>
       </c>
@@ -9375,7 +9400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -9419,7 +9444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -9463,7 +9488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -9507,7 +9532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -9551,7 +9576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -9592,7 +9617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -9636,7 +9661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -9680,7 +9705,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -9724,7 +9749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -9768,7 +9793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -9812,7 +9837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -9856,7 +9881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -9900,7 +9925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -9944,7 +9969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -9988,7 +10013,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2023</v>
       </c>
@@ -10032,7 +10057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -10076,7 +10101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -10120,7 +10145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -10164,7 +10189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -10208,7 +10233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -10252,7 +10277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -10296,7 +10321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -10340,7 +10365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -10384,7 +10409,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -10428,7 +10453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2023</v>
       </c>
@@ -10472,7 +10497,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2023</v>
       </c>
@@ -10516,7 +10541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -10560,7 +10585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -10604,7 +10629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -10648,7 +10673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -10692,7 +10717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2018</v>
       </c>
@@ -10733,7 +10758,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2018</v>
       </c>
@@ -10774,7 +10799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2018</v>
       </c>
@@ -10815,7 +10840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -10859,7 +10884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -10903,7 +10928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2018</v>
       </c>
@@ -10947,7 +10972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2018</v>
       </c>
@@ -10991,7 +11016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2018</v>
       </c>
@@ -11035,7 +11060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -11079,7 +11104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -11123,7 +11148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -11167,7 +11192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2025</v>
       </c>
@@ -11211,7 +11236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -11255,7 +11280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -11299,7 +11324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -11343,7 +11368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -11387,7 +11412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -11431,7 +11456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -11475,7 +11500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -11516,7 +11541,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2018</v>
       </c>
@@ -11560,7 +11585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2018</v>
       </c>
@@ -11604,7 +11629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -11648,7 +11673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2023</v>
       </c>
@@ -11692,7 +11717,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -11736,7 +11761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2025</v>
       </c>
@@ -11780,7 +11805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2023</v>
       </c>
@@ -11824,7 +11849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -11868,7 +11893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -11912,7 +11937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -11956,7 +11981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -12000,7 +12025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -12044,7 +12069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -12088,7 +12113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -12132,7 +12157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -12176,7 +12201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -12228,43 +12253,40 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D239">
-        <v>113143</v>
+        <v>111142</v>
       </c>
       <c r="E239" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="F239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I239">
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K239" t="s">
         <v>21</v>
       </c>
       <c r="L239" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="M239" t="s">
-        <v>291</v>
-      </c>
-      <c r="O239" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -12305,7 +12327,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -12346,7 +12368,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -12390,7 +12412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -12431,7 +12453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -12475,7 +12497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -12519,7 +12541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2023</v>
       </c>
@@ -12563,7 +12585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -12607,7 +12629,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -12651,7 +12673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -12695,7 +12717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -12739,7 +12761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -12783,7 +12805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -12827,7 +12849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -12871,7 +12893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -12915,7 +12937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -12959,7 +12981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2018</v>
       </c>
@@ -13000,7 +13022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -13044,7 +13066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -13088,7 +13110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -13132,7 +13154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -13176,7 +13198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -13220,7 +13242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -13264,7 +13286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -13311,7 +13333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -13358,7 +13380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -13402,7 +13424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -13449,7 +13471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -13496,7 +13518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2025</v>
       </c>
@@ -13540,7 +13562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2025</v>
       </c>
@@ -13584,7 +13606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -13628,7 +13650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2025</v>
       </c>
@@ -13672,7 +13694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2023</v>
       </c>
@@ -13716,7 +13738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -13763,7 +13785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2023</v>
       </c>
@@ -13807,7 +13829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -13851,7 +13873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -13895,7 +13917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -13939,7 +13961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2018</v>
       </c>
@@ -13983,7 +14005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2018</v>
       </c>
@@ -14027,7 +14049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -14071,7 +14093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -14115,7 +14137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -14159,7 +14181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2023</v>
       </c>
@@ -14203,7 +14225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -14250,7 +14272,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -14297,7 +14319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -14344,7 +14366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -14388,7 +14410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -14432,7 +14454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -14476,7 +14498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2023</v>
       </c>
@@ -14520,7 +14542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -14564,7 +14586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -14608,7 +14630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -14652,7 +14674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -14699,7 +14721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -14746,7 +14768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -14793,7 +14815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -14837,7 +14859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2018</v>
       </c>
@@ -14878,7 +14900,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2018</v>
       </c>
@@ -14919,7 +14941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -14963,7 +14985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2023</v>
       </c>
@@ -15007,7 +15029,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -15051,7 +15073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -15095,7 +15117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -15139,7 +15161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -15183,7 +15205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -15235,40 +15257,40 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D307">
-        <v>113142</v>
+        <v>111143</v>
       </c>
       <c r="E307" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F307">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I307">
         <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K307" t="s">
         <v>21</v>
       </c>
       <c r="L307" t="s">
-        <v>328</v>
-      </c>
-      <c r="P307" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="N307" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -15312,7 +15334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2018</v>
       </c>
@@ -15356,7 +15378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2018</v>
       </c>
@@ -15397,7 +15419,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2018</v>
       </c>
@@ -15438,7 +15460,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -15482,7 +15504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -15526,7 +15548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2025</v>
       </c>
@@ -15570,7 +15592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2025</v>
       </c>
@@ -15614,7 +15636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2023</v>
       </c>
@@ -15658,7 +15680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2018</v>
       </c>
@@ -15702,7 +15724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2018</v>
       </c>
@@ -15746,7 +15768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -15793,7 +15815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2023</v>
       </c>
@@ -15837,7 +15859,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -15881,7 +15903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -15925,7 +15947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2018</v>
       </c>
@@ -15969,7 +15991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2018</v>
       </c>
@@ -16010,7 +16032,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -16054,7 +16076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2018</v>
       </c>
@@ -16095,7 +16117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -16136,7 +16158,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -16180,7 +16202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -16224,7 +16246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -16268,7 +16290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -16312,7 +16334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -16356,7 +16378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -16400,7 +16422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -16444,7 +16466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -16488,7 +16510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -16529,7 +16551,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2018</v>
       </c>
@@ -16573,7 +16595,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -16617,7 +16639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -16661,7 +16683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -16705,7 +16727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -16752,7 +16774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -16799,7 +16821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -16843,7 +16865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -16887,7 +16909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2023</v>
       </c>
@@ -16931,7 +16953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2018</v>
       </c>
@@ -16972,7 +16994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2018</v>
       </c>
@@ -17013,7 +17035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2018</v>
       </c>
@@ -17054,7 +17076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -17098,7 +17120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -17142,7 +17164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -17183,7 +17205,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -17227,7 +17249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -17271,7 +17293,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -17315,7 +17337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -17359,7 +17381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2023</v>
       </c>
@@ -17403,7 +17425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2018</v>
       </c>
@@ -17447,7 +17469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -17491,7 +17513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2023</v>
       </c>
@@ -17535,7 +17557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -17576,7 +17598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -17620,7 +17642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2018</v>
       </c>
@@ -17664,7 +17686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -17708,7 +17730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -17752,7 +17774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2023</v>
       </c>
@@ -17807,19 +17829,19 @@
         <v>18</v>
       </c>
       <c r="D366">
-        <v>111142</v>
+        <v>111144</v>
       </c>
       <c r="E366" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="F366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I366">
         <v>3</v>
@@ -17831,13 +17853,13 @@
         <v>21</v>
       </c>
       <c r="L366" t="s">
-        <v>364</v>
-      </c>
-      <c r="M366" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2022</v>
       </c>
@@ -17878,7 +17900,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -17922,7 +17944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -17974,13 +17996,13 @@
         <v>1</v>
       </c>
       <c r="C370" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D370">
-        <v>112149</v>
+        <v>111145</v>
       </c>
       <c r="E370" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F370">
         <v>4</v>
@@ -17995,19 +18017,22 @@
         <v>3</v>
       </c>
       <c r="J370" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K370" t="s">
         <v>21</v>
       </c>
       <c r="L370" t="s">
-        <v>365</v>
-      </c>
-      <c r="R370" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="N370" t="s">
+        <v>68</v>
+      </c>
+      <c r="P370" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2022</v>
       </c>
@@ -18051,7 +18076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2025</v>
       </c>
@@ -18095,7 +18120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -18139,7 +18164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2022</v>
       </c>
@@ -18180,7 +18205,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2022</v>
       </c>
@@ -18224,7 +18249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -18279,19 +18304,19 @@
         <v>18</v>
       </c>
       <c r="D377">
-        <v>111149</v>
+        <v>111146</v>
       </c>
       <c r="E377" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="F377">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I377">
         <v>3</v>
@@ -18303,10 +18328,10 @@
         <v>21</v>
       </c>
       <c r="L377" t="s">
-        <v>371</v>
-      </c>
-      <c r="R377" t="s">
-        <v>239</v>
+        <v>202</v>
+      </c>
+      <c r="O377" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -18320,10 +18345,10 @@
         <v>18</v>
       </c>
       <c r="D378">
-        <v>111144</v>
+        <v>111147</v>
       </c>
       <c r="E378" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F378">
         <v>4</v>
@@ -18344,10 +18369,13 @@
         <v>21</v>
       </c>
       <c r="L378" t="s">
-        <v>371</v>
+        <v>396</v>
+      </c>
+      <c r="N378" t="s">
+        <v>397</v>
       </c>
       <c r="Q378" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
@@ -18358,13 +18386,13 @@
         <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D379">
-        <v>113149</v>
+        <v>111148</v>
       </c>
       <c r="E379" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="F379">
         <v>4</v>
@@ -18379,19 +18407,22 @@
         <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K379" t="s">
         <v>21</v>
       </c>
       <c r="L379" t="s">
-        <v>371</v>
-      </c>
-      <c r="O379" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="P379" t="s">
+        <v>388</v>
+      </c>
+      <c r="R379" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2018</v>
       </c>
@@ -18435,7 +18466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2018</v>
       </c>
@@ -18479,7 +18510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2018</v>
       </c>
@@ -18520,7 +18551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2018</v>
       </c>
@@ -18561,7 +18592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2018</v>
       </c>
@@ -18602,7 +18633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2022</v>
       </c>
@@ -18646,7 +18677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2018</v>
       </c>
@@ -18690,7 +18721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2018</v>
       </c>
@@ -18734,7 +18765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2022</v>
       </c>
@@ -18778,7 +18809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2022</v>
       </c>
@@ -18822,7 +18853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -18866,7 +18897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2023</v>
       </c>
@@ -18910,7 +18941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -18954,7 +18985,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -18998,7 +19029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -19042,7 +19073,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -19086,7 +19117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2018</v>
       </c>
@@ -19130,7 +19161,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -19177,7 +19208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2023</v>
       </c>
@@ -19221,7 +19252,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -19265,7 +19296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -19309,7 +19340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -19353,7 +19384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2018</v>
       </c>
@@ -19394,7 +19425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2018</v>
       </c>
@@ -19435,7 +19466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2018</v>
       </c>
@@ -19476,7 +19507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2022</v>
       </c>
@@ -19520,7 +19551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2022</v>
       </c>
@@ -19564,7 +19595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2022</v>
       </c>
@@ -19608,7 +19639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2022</v>
       </c>
@@ -19652,7 +19683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2022</v>
       </c>
@@ -19704,40 +19735,40 @@
         <v>1</v>
       </c>
       <c r="C410" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D410">
-        <v>113146</v>
+        <v>111149</v>
       </c>
       <c r="E410" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="F410">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I410">
         <v>3</v>
       </c>
       <c r="J410" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K410" t="s">
         <v>21</v>
       </c>
       <c r="L410" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="R410" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2022</v>
       </c>
@@ -19748,19 +19779,19 @@
         <v>34</v>
       </c>
       <c r="D411">
-        <v>112142</v>
+        <v>112145</v>
       </c>
       <c r="E411" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F411">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H411">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I411">
         <v>3</v>
@@ -19772,13 +19803,13 @@
         <v>21</v>
       </c>
       <c r="L411" t="s">
-        <v>387</v>
-      </c>
-      <c r="N411" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="O411" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2022</v>
       </c>
@@ -19789,19 +19820,19 @@
         <v>34</v>
       </c>
       <c r="D412">
-        <v>112143</v>
+        <v>112146</v>
       </c>
       <c r="E412" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F412">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I412">
         <v>3</v>
@@ -19813,16 +19844,13 @@
         <v>21</v>
       </c>
       <c r="L412" t="s">
-        <v>387</v>
-      </c>
-      <c r="M412" t="s">
-        <v>388</v>
-      </c>
-      <c r="O412" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2018</v>
       </c>
@@ -19866,7 +19894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2018</v>
       </c>
@@ -19907,7 +19935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2022</v>
       </c>
@@ -19951,7 +19979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2022</v>
       </c>
@@ -19995,7 +20023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2018</v>
       </c>
@@ -20036,7 +20064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -20080,7 +20108,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2025</v>
       </c>
@@ -20124,7 +20152,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -20168,7 +20196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -20212,7 +20240,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -20259,7 +20287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -20306,7 +20334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2022</v>
       </c>
@@ -20314,13 +20342,13 @@
         <v>1</v>
       </c>
       <c r="C424" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D424">
-        <v>111147</v>
+        <v>112144</v>
       </c>
       <c r="E424" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="F424">
         <v>4</v>
@@ -20335,22 +20363,19 @@
         <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K424" t="s">
         <v>21</v>
       </c>
       <c r="L424" t="s">
-        <v>396</v>
-      </c>
-      <c r="N424" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q424" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="R424" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -20361,10 +20386,10 @@
         <v>34</v>
       </c>
       <c r="D425">
-        <v>112147</v>
+        <v>112149</v>
       </c>
       <c r="E425" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="F425">
         <v>4</v>
@@ -20385,13 +20410,13 @@
         <v>21</v>
       </c>
       <c r="L425" t="s">
-        <v>396</v>
-      </c>
-      <c r="P425" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="R425" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -20399,43 +20424,40 @@
         <v>1</v>
       </c>
       <c r="C426" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D426">
-        <v>113147</v>
+        <v>112142</v>
       </c>
       <c r="E426" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F426">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I426">
         <v>3</v>
       </c>
       <c r="J426" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K426" t="s">
         <v>21</v>
       </c>
       <c r="L426" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="N426" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q426" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -20479,7 +20501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -20523,7 +20545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -20567,7 +20589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -20611,7 +20633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -20655,7 +20677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -20699,7 +20721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -20743,7 +20765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2023</v>
       </c>
@@ -20787,7 +20809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2022</v>
       </c>
@@ -20831,7 +20853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2022</v>
       </c>
@@ -20875,7 +20897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2022</v>
       </c>
@@ -20916,7 +20938,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2022</v>
       </c>
@@ -20960,7 +20982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2022</v>
       </c>
@@ -21004,7 +21026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2022</v>
       </c>
@@ -21045,7 +21067,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2018</v>
       </c>
@@ -21086,7 +21108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2018</v>
       </c>
@@ -21127,7 +21149,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2022</v>
       </c>
@@ -21171,7 +21193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2022</v>
       </c>
@@ -21215,7 +21237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2025</v>
       </c>
@@ -21256,7 +21278,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2022</v>
       </c>
@@ -21300,7 +21322,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2022</v>
       </c>
@@ -21344,7 +21366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2025</v>
       </c>
@@ -21388,7 +21410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2022</v>
       </c>
@@ -21432,7 +21454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2022</v>
       </c>
@@ -21476,7 +21498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2022</v>
       </c>
@@ -21520,7 +21542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2022</v>
       </c>
@@ -21564,7 +21586,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2022</v>
       </c>
@@ -21608,7 +21630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2022</v>
       </c>
@@ -21652,7 +21674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2022</v>
       </c>
@@ -21696,7 +21718,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2022</v>
       </c>
@@ -21737,7 +21759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2022</v>
       </c>
@@ -21781,7 +21803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2023</v>
       </c>
@@ -21825,7 +21847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2022</v>
       </c>
@@ -21869,7 +21891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2022</v>
       </c>
@@ -21913,7 +21935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2022</v>
       </c>
@@ -21957,7 +21979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2022</v>
       </c>
@@ -22001,7 +22023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2022</v>
       </c>
@@ -22045,7 +22067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2023</v>
       </c>
@@ -22089,7 +22111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2023</v>
       </c>
@@ -22133,7 +22155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2022</v>
       </c>
@@ -22177,7 +22199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -22221,7 +22243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2022</v>
       </c>
@@ -22265,7 +22287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2022</v>
       </c>
@@ -22309,7 +22331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2022</v>
       </c>
@@ -22353,7 +22375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2022</v>
       </c>
@@ -22397,7 +22419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2022</v>
       </c>
@@ -22441,7 +22463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2022</v>
       </c>
@@ -22485,7 +22507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2018</v>
       </c>
@@ -22529,7 +22551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2018</v>
       </c>
@@ -22573,7 +22595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2022</v>
       </c>
@@ -22617,7 +22639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2022</v>
       </c>
@@ -22661,7 +22683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2022</v>
       </c>
@@ -22705,7 +22727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2022</v>
       </c>
@@ -22746,7 +22768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2022</v>
       </c>
@@ -22790,7 +22812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2022</v>
       </c>
@@ -22831,7 +22853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2023</v>
       </c>
@@ -22875,7 +22897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2025</v>
       </c>
@@ -22919,7 +22941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2022</v>
       </c>
@@ -22963,7 +22985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2022</v>
       </c>
@@ -23007,7 +23029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2022</v>
       </c>
@@ -23048,7 +23070,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2022</v>
       </c>
@@ -23089,7 +23111,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2022</v>
       </c>
@@ -23133,7 +23155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2022</v>
       </c>
@@ -23177,7 +23199,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2022</v>
       </c>
@@ -23221,7 +23243,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2022</v>
       </c>
@@ -23265,7 +23287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2022</v>
       </c>
@@ -23309,7 +23331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2022</v>
       </c>
@@ -23353,7 +23375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2022</v>
       </c>
@@ -23397,7 +23419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2022</v>
       </c>
@@ -23441,7 +23463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2022</v>
       </c>
@@ -23482,7 +23504,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2022</v>
       </c>
@@ -23523,7 +23545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2022</v>
       </c>
@@ -23567,7 +23589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2022</v>
       </c>
@@ -23611,7 +23633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2023</v>
       </c>
@@ -23655,7 +23677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2022</v>
       </c>
@@ -23699,7 +23721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2022</v>
       </c>
@@ -23743,7 +23765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2018</v>
       </c>
@@ -23787,7 +23809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2022</v>
       </c>
@@ -23831,7 +23853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2022</v>
       </c>
@@ -23875,7 +23897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2022</v>
       </c>
@@ -23919,7 +23941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2022</v>
       </c>
@@ -23963,7 +23985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2023</v>
       </c>
@@ -24004,7 +24026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2022</v>
       </c>
@@ -24048,7 +24070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -24056,13 +24078,13 @@
         <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D510">
-        <v>111148</v>
+        <v>112143</v>
       </c>
       <c r="E510" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="F510">
         <v>4</v>
@@ -24077,22 +24099,22 @@
         <v>3</v>
       </c>
       <c r="J510" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K510" t="s">
         <v>21</v>
       </c>
       <c r="L510" t="s">
-        <v>438</v>
-      </c>
-      <c r="P510" t="s">
+        <v>387</v>
+      </c>
+      <c r="M510" t="s">
         <v>388</v>
       </c>
-      <c r="R510" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O510" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -24103,10 +24125,10 @@
         <v>34</v>
       </c>
       <c r="D511">
-        <v>112148</v>
+        <v>112147</v>
       </c>
       <c r="E511" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="F511">
         <v>4</v>
@@ -24127,13 +24149,13 @@
         <v>21</v>
       </c>
       <c r="L511" t="s">
-        <v>438</v>
-      </c>
-      <c r="M511" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="P511" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -24141,10 +24163,10 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D512">
-        <v>113148</v>
+        <v>112148</v>
       </c>
       <c r="E512" t="s">
         <v>152</v>
@@ -24162,7 +24184,7 @@
         <v>3</v>
       </c>
       <c r="J512" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K512" t="s">
         <v>21</v>
@@ -24170,8 +24192,8 @@
       <c r="L512" t="s">
         <v>438</v>
       </c>
-      <c r="Q512" t="s">
-        <v>440</v>
+      <c r="M512" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/data/horarios/horarios-21-04.raw.xlsx
+++ b/data/horarios/horarios-21-04.raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275BFD1-C81B-46A9-A31B-C8B1EEAD4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DBB247-3CBF-4480-BC15-00EDB405ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1327F3A6-D9A6-461D-B625-CF0BE3FF492C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1327F3A6-D9A6-461D-B625-CF0BE3FF492C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,22 +1420,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}" name="Table2" displayName="Table2" ref="A1:R512" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:R512" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}">
-    <filterColumn colId="1">
+    <filterColumn colId="11">
       <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="C"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="SJL 01-M"/>
-        <filter val="SJL 01-T"/>
-        <filter val="SJL 02-T"/>
-        <filter val="SJL 03-T"/>
+        <filter val="PINEDA YAROS WILVER"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1785,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76592998-DD56-44F1-8DD2-864C0839338E}">
   <dimension ref="A1:R512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q366" sqref="Q366"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12245,7 +12232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -15249,7 +15236,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -17337,7 +17324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -17381,7 +17368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2023</v>
       </c>
@@ -17425,7 +17412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2018</v>
       </c>
@@ -17818,7 +17805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2022</v>
       </c>
@@ -17988,7 +17975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -18293,7 +18280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2022</v>
       </c>
@@ -18334,7 +18321,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2022</v>
       </c>
@@ -18378,7 +18365,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2022</v>
       </c>
@@ -19727,7 +19714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2022</v>
       </c>

--- a/data/horarios/horarios-21-04.raw.xlsx
+++ b/data/horarios/horarios-21-04.raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DBB247-3CBF-4480-BC15-00EDB405ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930DBD6-0100-44FC-B5C5-E55FBCEF070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1327F3A6-D9A6-461D-B625-CF0BE3FF492C}"/>
   </bookViews>
@@ -555,24 +555,15 @@
     <t xml:space="preserve">CONTABILIDAD FINANCIERA II </t>
   </si>
   <si>
-    <t>SJL 01-T</t>
-  </si>
-  <si>
     <t>CAYUELA BARRUEZO, MIGUEL ÁNGEL</t>
   </si>
   <si>
     <t>15:30 -17:00 / 17.00 - 18:30</t>
   </si>
   <si>
-    <t>SJL 02-T</t>
-  </si>
-  <si>
     <t>14:00 -15:30 /15:30 - 17:00</t>
   </si>
   <si>
-    <t>SJL 03-T</t>
-  </si>
-  <si>
     <t>CERNA MAGUIÑA, HÉCTOR FÉLIX</t>
   </si>
   <si>
@@ -591,9 +582,6 @@
     <t>08:00-09:30 / 2:00-03:30</t>
   </si>
   <si>
-    <t>SJL 01-M</t>
-  </si>
-  <si>
     <t>09:40-11:10/ 11:20-12:50</t>
   </si>
   <si>
@@ -1363,6 +1351,18 @@
   </si>
   <si>
     <t>CFF</t>
+  </si>
+  <si>
+    <t>SJL 71-T</t>
+  </si>
+  <si>
+    <t>SJL 71-M</t>
+  </si>
+  <si>
+    <t>SJL 72-T</t>
+  </si>
+  <si>
+    <t>SJL 73-T</t>
   </si>
 </sst>
 </file>
@@ -1420,14 +1420,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}" name="Table2" displayName="Table2" ref="A1:R512" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:R512" xr:uid="{417C7F3C-8601-413F-8460-5E71DD68BE2F}">
-    <filterColumn colId="11">
+    <filterColumn colId="9">
       <filters>
-        <filter val="PINEDA YAROS WILVER"/>
+        <filter val="SJL 02-T"/>
+        <filter val="SJL 03-T"/>
+        <filter val="SJL 71-M"/>
+        <filter val="SJL 71-T"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A239:R410">
-    <sortCondition ref="D1:D512"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:R512">
+    <sortCondition ref="J1:J512"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D5E142BD-4454-4CEC-9557-F2F7920D14BB}" name="PLAN DE_x000a_ESTUDIOS" dataCellStyle="Normal"/>
@@ -1772,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76592998-DD56-44F1-8DD2-864C0839338E}">
   <dimension ref="A1:R512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J370" sqref="J370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D6">
         <v>111147</v>
@@ -4808,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D69">
         <v>111145</v>
@@ -5991,7 +5994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -5999,10 +6002,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D96">
-        <v>113145</v>
+        <v>112145</v>
       </c>
       <c r="E96" t="s">
         <v>142</v>
@@ -6020,19 +6023,19 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K96" t="s">
         <v>21</v>
       </c>
       <c r="L96" t="s">
-        <v>173</v>
-      </c>
-      <c r="M96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="O96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -6040,40 +6043,40 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D97">
-        <v>113144</v>
+        <v>112146</v>
       </c>
       <c r="E97" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K97" t="s">
         <v>21</v>
       </c>
       <c r="L97" t="s">
-        <v>236</v>
-      </c>
-      <c r="N97" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -6081,13 +6084,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D98">
-        <v>113143</v>
+        <v>112144</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -6102,19 +6105,16 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K98" t="s">
         <v>21</v>
       </c>
       <c r="L98" t="s">
-        <v>290</v>
-      </c>
-      <c r="M98" t="s">
-        <v>291</v>
-      </c>
-      <c r="O98" t="s">
-        <v>292</v>
+        <v>232</v>
+      </c>
+      <c r="R98" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>37</v>
       </c>
       <c r="L99" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O99" t="s">
         <v>66</v>
@@ -6190,13 +6190,13 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K100" t="s">
         <v>37</v>
       </c>
       <c r="L100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N100" t="s">
         <v>68</v>
@@ -6234,19 +6234,19 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K101" t="s">
         <v>48</v>
       </c>
       <c r="L101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M101" t="s">
         <v>60</v>
       </c>
       <c r="O101" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6284,10 +6284,10 @@
         <v>37</v>
       </c>
       <c r="L102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
         <v>37</v>
       </c>
       <c r="L103" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M103" t="s">
         <v>66</v>
@@ -6334,21 +6334,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2022</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>111351</v>
+        <v>112149</v>
       </c>
       <c r="E104" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -6363,16 +6363,16 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="K104" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L104" t="s">
-        <v>182</v>
-      </c>
-      <c r="P104" t="s">
-        <v>185</v>
+        <v>361</v>
+      </c>
+      <c r="R104" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>111798</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F105">
         <v>4</v>
@@ -6404,13 +6404,13 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K105" t="s">
         <v>48</v>
       </c>
       <c r="L105" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N105" t="s">
         <v>73</v>
@@ -6433,7 +6433,7 @@
         <v>111798</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F106">
         <v>4</v>
@@ -6448,13 +6448,13 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K106" t="s">
         <v>48</v>
       </c>
       <c r="L106" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N106" t="s">
         <v>75</v>
@@ -6477,7 +6477,7 @@
         <v>111798</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -6498,7 +6498,7 @@
         <v>48</v>
       </c>
       <c r="L107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N107" t="s">
         <v>60</v>
@@ -6542,7 +6542,7 @@
         <v>37</v>
       </c>
       <c r="L108" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N108" t="s">
         <v>38</v>
@@ -6580,13 +6580,13 @@
         <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K109" t="s">
         <v>37</v>
       </c>
       <c r="L109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N109" t="s">
         <v>89</v>
@@ -6630,7 +6630,7 @@
         <v>37</v>
       </c>
       <c r="L110" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N110" t="s">
         <v>66</v>
@@ -6668,16 +6668,16 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K111" t="s">
         <v>48</v>
       </c>
       <c r="L111" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M111" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O111" t="s">
         <v>60</v>
@@ -6718,7 +6718,7 @@
         <v>48</v>
       </c>
       <c r="L112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M112" t="s">
         <v>75</v>
@@ -6762,7 +6762,7 @@
         <v>48</v>
       </c>
       <c r="L113" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M113" t="s">
         <v>60</v>
@@ -6771,7 +6771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -6779,10 +6779,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D114">
-        <v>113142</v>
+        <v>112142</v>
       </c>
       <c r="E114" t="s">
         <v>91</v>
@@ -6800,16 +6800,16 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K114" t="s">
         <v>21</v>
       </c>
       <c r="L114" t="s">
-        <v>328</v>
-      </c>
-      <c r="P114" t="s">
-        <v>203</v>
+        <v>383</v>
+      </c>
+      <c r="N114" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6826,7 +6826,7 @@
         <v>111143</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F115">
         <v>4</v>
@@ -6841,13 +6841,13 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K115" t="s">
         <v>37</v>
       </c>
       <c r="L115" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O115" t="s">
         <v>66</v>
@@ -6870,7 +6870,7 @@
         <v>111143</v>
       </c>
       <c r="E116" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F116">
         <v>4</v>
@@ -6891,7 +6891,7 @@
         <v>37</v>
       </c>
       <c r="L116" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O116" t="s">
         <v>38</v>
@@ -6914,7 +6914,7 @@
         <v>111143</v>
       </c>
       <c r="E117" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F117">
         <v>4</v>
@@ -6935,7 +6935,7 @@
         <v>37</v>
       </c>
       <c r="L117" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O117" t="s">
         <v>68</v>
@@ -6979,7 +6979,7 @@
         <v>37</v>
       </c>
       <c r="L118" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N118" t="s">
         <v>39</v>
@@ -7002,7 +7002,7 @@
         <v>114303</v>
       </c>
       <c r="E119" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -7023,7 +7023,7 @@
         <v>37</v>
       </c>
       <c r="L119" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M119" t="s">
         <v>66</v>
@@ -7032,7 +7032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -7040,13 +7040,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D120">
-        <v>113149</v>
+        <v>112143</v>
       </c>
       <c r="E120" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="F120">
         <v>4</v>
@@ -7061,19 +7061,22 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K120" t="s">
         <v>21</v>
       </c>
       <c r="L120" t="s">
-        <v>371</v>
+        <v>383</v>
+      </c>
+      <c r="M120" t="s">
+        <v>384</v>
       </c>
       <c r="O120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -7081,37 +7084,37 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D121">
-        <v>113146</v>
+        <v>112147</v>
       </c>
       <c r="E121" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K121" t="s">
         <v>21</v>
       </c>
       <c r="L121" t="s">
-        <v>386</v>
-      </c>
-      <c r="R121" t="s">
-        <v>203</v>
+        <v>392</v>
+      </c>
+      <c r="P121" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7128,7 +7131,7 @@
         <v>111791</v>
       </c>
       <c r="E122" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -7143,13 +7146,13 @@
         <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s">
         <v>48</v>
       </c>
       <c r="L122" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O122" t="s">
         <v>60</v>
@@ -7172,7 +7175,7 @@
         <v>112750</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F123">
         <v>4</v>
@@ -7187,13 +7190,13 @@
         <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K123" t="s">
         <v>48</v>
       </c>
       <c r="L123" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O123" t="s">
         <v>73</v>
@@ -7216,7 +7219,7 @@
         <v>113750</v>
       </c>
       <c r="E124" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -7231,13 +7234,13 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K124" t="s">
         <v>48</v>
       </c>
       <c r="L124" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O124" t="s">
         <v>75</v>
@@ -7281,7 +7284,7 @@
         <v>37</v>
       </c>
       <c r="L125" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M125" t="s">
         <v>66</v>
@@ -7325,7 +7328,7 @@
         <v>37</v>
       </c>
       <c r="L126" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M126" t="s">
         <v>68</v>
@@ -7369,10 +7372,10 @@
         <v>37</v>
       </c>
       <c r="L127" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R127" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7410,10 +7413,10 @@
         <v>37</v>
       </c>
       <c r="L128" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q128" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7451,13 +7454,13 @@
         <v>37</v>
       </c>
       <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q129" t="s">
         <v>209</v>
-      </c>
-      <c r="M129" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7495,7 +7498,7 @@
         <v>37</v>
       </c>
       <c r="L130" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N130" t="s">
         <v>39</v>
@@ -7539,7 +7542,7 @@
         <v>48</v>
       </c>
       <c r="L131" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O131" t="s">
         <v>75</v>
@@ -7577,19 +7580,19 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K132" t="s">
         <v>48</v>
       </c>
       <c r="L132" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M132" t="s">
         <v>75</v>
       </c>
       <c r="O132" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7606,7 +7609,7 @@
         <v>111794</v>
       </c>
       <c r="E133" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F133">
         <v>4</v>
@@ -7621,16 +7624,16 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K133" t="s">
         <v>48</v>
       </c>
       <c r="L133" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q133" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7668,13 +7671,13 @@
         <v>37</v>
       </c>
       <c r="L134" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N134" t="s">
         <v>66</v>
       </c>
       <c r="Q134" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7712,7 +7715,7 @@
         <v>37</v>
       </c>
       <c r="L135" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M135" t="s">
         <v>66</v>
@@ -7756,7 +7759,7 @@
         <v>21</v>
       </c>
       <c r="L136" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N136" t="s">
         <v>25</v>
@@ -7779,7 +7782,7 @@
         <v>111146</v>
       </c>
       <c r="E137" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F137">
         <v>5</v>
@@ -7794,19 +7797,19 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K137" t="s">
         <v>37</v>
       </c>
       <c r="L137" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P137" t="s">
         <v>38</v>
       </c>
       <c r="R137" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7823,7 +7826,7 @@
         <v>113146</v>
       </c>
       <c r="E138" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F138">
         <v>5</v>
@@ -7838,19 +7841,19 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K138" t="s">
         <v>37</v>
       </c>
       <c r="L138" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O138" t="s">
         <v>68</v>
       </c>
       <c r="Q138" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R138" t="s">
         <v>68</v>
@@ -7885,13 +7888,13 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K139" t="s">
         <v>37</v>
       </c>
       <c r="L139" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N139" t="s">
         <v>38</v>
@@ -7929,13 +7932,13 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K140" t="s">
         <v>37</v>
       </c>
       <c r="L140" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P140" t="s">
         <v>66</v>
@@ -7952,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D141">
         <v>111145</v>
@@ -7979,7 +7982,7 @@
         <v>21</v>
       </c>
       <c r="L141" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O141" t="s">
         <v>23</v>
@@ -8023,13 +8026,13 @@
         <v>21</v>
       </c>
       <c r="L142" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N142" t="s">
         <v>26</v>
       </c>
       <c r="R142" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8046,7 +8049,7 @@
         <v>111791</v>
       </c>
       <c r="E143" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F143">
         <v>4</v>
@@ -8067,7 +8070,7 @@
         <v>48</v>
       </c>
       <c r="L143" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M143" t="s">
         <v>73</v>
@@ -8090,7 +8093,7 @@
         <v>111791</v>
       </c>
       <c r="E144" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F144">
         <v>4</v>
@@ -8111,7 +8114,7 @@
         <v>48</v>
       </c>
       <c r="L144" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M144" t="s">
         <v>75</v>
@@ -8149,19 +8152,19 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K145" t="s">
         <v>48</v>
       </c>
       <c r="L145" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M145" t="s">
         <v>73</v>
       </c>
       <c r="O145" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8199,7 +8202,7 @@
         <v>48</v>
       </c>
       <c r="L146" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M146" t="s">
         <v>60</v>
@@ -8243,13 +8246,13 @@
         <v>48</v>
       </c>
       <c r="L147" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O147" t="s">
         <v>73</v>
       </c>
       <c r="Q147" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8287,10 +8290,10 @@
         <v>37</v>
       </c>
       <c r="L148" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M148" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8328,7 +8331,7 @@
         <v>21</v>
       </c>
       <c r="L149" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M149" t="s">
         <v>26</v>
@@ -8366,13 +8369,13 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K150" t="s">
         <v>48</v>
       </c>
       <c r="L150" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M150" t="s">
         <v>60</v>
@@ -8416,7 +8419,7 @@
         <v>37</v>
       </c>
       <c r="L151" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O151" t="s">
         <v>66</v>
@@ -8454,13 +8457,13 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K152" t="s">
         <v>37</v>
       </c>
       <c r="L152" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O152" t="s">
         <v>68</v>
@@ -8498,13 +8501,13 @@
         <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K153" t="s">
         <v>37</v>
       </c>
       <c r="L153" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O153" t="s">
         <v>38</v>
@@ -8548,13 +8551,13 @@
         <v>48</v>
       </c>
       <c r="L154" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N154" t="s">
         <v>73</v>
       </c>
       <c r="P154" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8595,7 @@
         <v>48</v>
       </c>
       <c r="L155" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N155" t="s">
         <v>75</v>
@@ -8636,7 +8639,7 @@
         <v>48</v>
       </c>
       <c r="L156" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N156" t="s">
         <v>72</v>
@@ -8680,7 +8683,7 @@
         <v>37</v>
       </c>
       <c r="L157" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M157" t="s">
         <v>68</v>
@@ -8724,7 +8727,7 @@
         <v>37</v>
       </c>
       <c r="L158" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M158" t="s">
         <v>38</v>
@@ -8762,13 +8765,13 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K159" t="s">
         <v>37</v>
       </c>
       <c r="L159" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M159" t="s">
         <v>66</v>
@@ -8777,7 +8780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -8785,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D160">
-        <v>113147</v>
+        <v>112148</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="F160">
         <v>4</v>
@@ -8806,19 +8809,16 @@
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="K160" t="s">
         <v>21</v>
       </c>
       <c r="L160" t="s">
-        <v>396</v>
-      </c>
-      <c r="N160" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>399</v>
+        <v>434</v>
+      </c>
+      <c r="M160" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D161">
         <v>111142</v>
@@ -8856,16 +8856,16 @@
         <v>21</v>
       </c>
       <c r="L161" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M161" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q161" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -8876,10 +8876,10 @@
         <v>40</v>
       </c>
       <c r="D162">
-        <v>113148</v>
+        <v>113145</v>
       </c>
       <c r="E162" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F162">
         <v>4</v>
@@ -8894,16 +8894,16 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="K162" t="s">
         <v>21</v>
       </c>
       <c r="L162" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>440</v>
+        <v>172</v>
+      </c>
+      <c r="M162" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
         <v>111791</v>
       </c>
       <c r="E163" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F163">
         <v>4</v>
@@ -8941,7 +8941,7 @@
         <v>48</v>
       </c>
       <c r="L163" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M163" t="s">
         <v>73</v>
@@ -8964,7 +8964,7 @@
         <v>113750</v>
       </c>
       <c r="E164" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F164">
         <v>4</v>
@@ -8985,7 +8985,7 @@
         <v>48</v>
       </c>
       <c r="L164" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M164" t="s">
         <v>75</v>
@@ -9008,7 +9008,7 @@
         <v>114304</v>
       </c>
       <c r="E165" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F165">
         <v>4</v>
@@ -9029,7 +9029,7 @@
         <v>37</v>
       </c>
       <c r="L165" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N165" t="s">
         <v>38</v>
@@ -9067,13 +9067,13 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K166" t="s">
         <v>37</v>
       </c>
       <c r="L166" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O166" t="s">
         <v>68</v>
@@ -9117,7 +9117,7 @@
         <v>37</v>
       </c>
       <c r="L167" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M167" t="s">
         <v>38</v>
@@ -9161,7 +9161,7 @@
         <v>21</v>
       </c>
       <c r="L168" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N168" t="s">
         <v>25</v>
@@ -9205,7 +9205,7 @@
         <v>37</v>
       </c>
       <c r="L169" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N169" t="s">
         <v>42</v>
@@ -9249,7 +9249,7 @@
         <v>37</v>
       </c>
       <c r="L170" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N170" t="s">
         <v>38</v>
@@ -9293,7 +9293,7 @@
         <v>48</v>
       </c>
       <c r="L171" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M171" t="s">
         <v>75</v>
@@ -9316,7 +9316,7 @@
         <v>111798</v>
       </c>
       <c r="E172" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F172">
         <v>4</v>
@@ -9337,10 +9337,10 @@
         <v>48</v>
       </c>
       <c r="L172" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N172" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -9378,7 +9378,7 @@
         <v>37</v>
       </c>
       <c r="L173" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N173" t="s">
         <v>38</v>
@@ -9422,7 +9422,7 @@
         <v>37</v>
       </c>
       <c r="L174" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N174" t="s">
         <v>66</v>
@@ -9466,7 +9466,7 @@
         <v>37</v>
       </c>
       <c r="L175" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N175" t="s">
         <v>68</v>
@@ -9510,7 +9510,7 @@
         <v>21</v>
       </c>
       <c r="L176" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N176" t="s">
         <v>23</v>
@@ -9554,7 +9554,7 @@
         <v>21</v>
       </c>
       <c r="L177" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N177" t="s">
         <v>26</v>
@@ -9598,10 +9598,10 @@
         <v>37</v>
       </c>
       <c r="L178" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R178" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -9639,10 +9639,10 @@
         <v>37</v>
       </c>
       <c r="L179" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O179" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q179" t="s">
         <v>38</v>
@@ -9683,13 +9683,13 @@
         <v>37</v>
       </c>
       <c r="L180" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O180" t="s">
         <v>38</v>
       </c>
       <c r="Q180" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -9706,7 +9706,7 @@
         <v>112354</v>
       </c>
       <c r="E181" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -9727,7 +9727,7 @@
         <v>37</v>
       </c>
       <c r="L181" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N181" t="s">
         <v>66</v>
@@ -9771,7 +9771,7 @@
         <v>37</v>
       </c>
       <c r="L182" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N182" t="s">
         <v>89</v>
@@ -9809,13 +9809,13 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K183" t="s">
         <v>37</v>
       </c>
       <c r="L183" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N183" t="s">
         <v>38</v>
@@ -9838,7 +9838,7 @@
         <v>111794</v>
       </c>
       <c r="E184" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -9859,7 +9859,7 @@
         <v>48</v>
       </c>
       <c r="L184" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N184" t="s">
         <v>60</v>
@@ -9882,7 +9882,7 @@
         <v>112753</v>
       </c>
       <c r="E185" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -9897,16 +9897,16 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K185" t="s">
         <v>48</v>
       </c>
       <c r="L185" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N185" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q185" t="s">
         <v>73</v>
@@ -9926,7 +9926,7 @@
         <v>111146</v>
       </c>
       <c r="E186" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F186">
         <v>5</v>
@@ -9947,10 +9947,10 @@
         <v>37</v>
       </c>
       <c r="L186" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M186" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R186" t="s">
         <v>68</v>
@@ -9970,7 +9970,7 @@
         <v>112146</v>
       </c>
       <c r="E187" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F187">
         <v>5</v>
@@ -9991,13 +9991,13 @@
         <v>37</v>
       </c>
       <c r="L187" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M187" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O187" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -10014,7 +10014,7 @@
         <v>114105</v>
       </c>
       <c r="E188" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F188">
         <v>5</v>
@@ -10035,10 +10035,10 @@
         <v>21</v>
       </c>
       <c r="L188" t="s">
+        <v>252</v>
+      </c>
+      <c r="O188" t="s">
         <v>256</v>
-      </c>
-      <c r="O188" t="s">
-        <v>260</v>
       </c>
       <c r="R188" t="s">
         <v>26</v>
@@ -10079,7 +10079,7 @@
         <v>37</v>
       </c>
       <c r="L189" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O189" t="s">
         <v>68</v>
@@ -10123,7 +10123,7 @@
         <v>37</v>
       </c>
       <c r="L190" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O190" t="s">
         <v>38</v>
@@ -10161,13 +10161,13 @@
         <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K191" t="s">
         <v>37</v>
       </c>
       <c r="L191" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O191" t="s">
         <v>66</v>
@@ -10211,10 +10211,10 @@
         <v>37</v>
       </c>
       <c r="L192" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N192" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P192" t="s">
         <v>38</v>
@@ -10255,7 +10255,7 @@
         <v>48</v>
       </c>
       <c r="L193" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N193" t="s">
         <v>75</v>
@@ -10293,13 +10293,13 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K194" t="s">
         <v>48</v>
       </c>
       <c r="L194" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M194" t="s">
         <v>75</v>
@@ -10343,7 +10343,7 @@
         <v>48</v>
       </c>
       <c r="L195" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N195" t="s">
         <v>72</v>
@@ -10381,13 +10381,13 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K196" t="s">
         <v>37</v>
       </c>
       <c r="L196" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M196" t="s">
         <v>96</v>
@@ -10431,10 +10431,10 @@
         <v>37</v>
       </c>
       <c r="L197" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M197" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R197" t="s">
         <v>66</v>
@@ -10475,13 +10475,13 @@
         <v>21</v>
       </c>
       <c r="L198" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M198" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="R198" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -10513,13 +10513,13 @@
         <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K199" t="s">
         <v>48</v>
       </c>
       <c r="L199" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N199" t="s">
         <v>75</v>
@@ -10563,7 +10563,7 @@
         <v>37</v>
       </c>
       <c r="L200" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N200" t="s">
         <v>123</v>
@@ -10601,13 +10601,13 @@
         <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K201" t="s">
         <v>37</v>
       </c>
       <c r="L201" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P201" t="s">
         <v>38</v>
@@ -10651,7 +10651,7 @@
         <v>37</v>
       </c>
       <c r="L202" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O202" t="s">
         <v>68</v>
@@ -10695,7 +10695,7 @@
         <v>37</v>
       </c>
       <c r="L203" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O203" t="s">
         <v>38</v>
@@ -10739,7 +10739,7 @@
         <v>48</v>
       </c>
       <c r="L204" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N204" t="s">
         <v>56</v>
@@ -10774,13 +10774,13 @@
         <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K205" t="s">
         <v>48</v>
       </c>
       <c r="L205" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O205" t="s">
         <v>52</v>
@@ -10800,7 +10800,7 @@
         <v>113946</v>
       </c>
       <c r="E206" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -10821,7 +10821,7 @@
         <v>48</v>
       </c>
       <c r="L206" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O206" t="s">
         <v>56</v>
@@ -10856,13 +10856,13 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K207" t="s">
         <v>48</v>
       </c>
       <c r="L207" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M207" t="s">
         <v>73</v>
@@ -10906,7 +10906,7 @@
         <v>48</v>
       </c>
       <c r="L208" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M208" t="s">
         <v>75</v>
@@ -10929,7 +10929,7 @@
         <v>111984</v>
       </c>
       <c r="E209" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F209">
         <v>4</v>
@@ -10950,7 +10950,7 @@
         <v>48</v>
       </c>
       <c r="L209" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M209" t="s">
         <v>60</v>
@@ -10973,7 +10973,7 @@
         <v>113942</v>
       </c>
       <c r="E210" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F210">
         <v>4</v>
@@ -10994,7 +10994,7 @@
         <v>48</v>
       </c>
       <c r="L210" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M210" t="s">
         <v>60</v>
@@ -11017,7 +11017,7 @@
         <v>113942</v>
       </c>
       <c r="E211" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F211">
         <v>4</v>
@@ -11038,7 +11038,7 @@
         <v>48</v>
       </c>
       <c r="L211" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N211" t="s">
         <v>75</v>
@@ -11076,13 +11076,13 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K212" t="s">
         <v>37</v>
       </c>
       <c r="L212" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M212" t="s">
         <v>66</v>
@@ -11120,13 +11120,13 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K213" t="s">
         <v>37</v>
       </c>
       <c r="L213" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N213" t="s">
         <v>42</v>
@@ -11170,7 +11170,7 @@
         <v>37</v>
       </c>
       <c r="L214" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O214" t="s">
         <v>38</v>
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D215">
         <v>111148</v>
@@ -11214,7 +11214,7 @@
         <v>21</v>
       </c>
       <c r="L215" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N215" t="s">
         <v>26</v>
@@ -11258,7 +11258,7 @@
         <v>37</v>
       </c>
       <c r="L216" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N216" t="s">
         <v>89</v>
@@ -11302,7 +11302,7 @@
         <v>37</v>
       </c>
       <c r="L217" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M217" t="s">
         <v>38</v>
@@ -11340,13 +11340,13 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K218" t="s">
         <v>37</v>
       </c>
       <c r="L218" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N218" t="s">
         <v>38</v>
@@ -11384,13 +11384,13 @@
         <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K219" t="s">
         <v>48</v>
       </c>
       <c r="L219" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M219" t="s">
         <v>60</v>
@@ -11428,13 +11428,13 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K220" t="s">
         <v>48</v>
       </c>
       <c r="L220" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M220" t="s">
         <v>75</v>
@@ -11472,60 +11472,60 @@
         <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K221" t="s">
         <v>48</v>
       </c>
       <c r="L221" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M221" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q221" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2022</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D222">
-        <v>111349</v>
+        <v>113144</v>
       </c>
       <c r="E222" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="F222">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
       <c r="K222" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L222" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>281</v>
+        <v>232</v>
+      </c>
+      <c r="N222" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -11542,7 +11542,7 @@
         <v>111983</v>
       </c>
       <c r="E223" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F223">
         <v>4</v>
@@ -11563,7 +11563,7 @@
         <v>48</v>
       </c>
       <c r="L223" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M223" t="s">
         <v>73</v>
@@ -11607,7 +11607,7 @@
         <v>48</v>
       </c>
       <c r="L224" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O224" t="s">
         <v>73</v>
@@ -11630,7 +11630,7 @@
         <v>111354</v>
       </c>
       <c r="E225" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F225">
         <v>4</v>
@@ -11645,13 +11645,13 @@
         <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K225" t="s">
         <v>37</v>
       </c>
       <c r="L225" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P225" t="s">
         <v>66</v>
@@ -11674,7 +11674,7 @@
         <v>114306</v>
       </c>
       <c r="E226" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F226">
         <v>4</v>
@@ -11695,7 +11695,7 @@
         <v>37</v>
       </c>
       <c r="L226" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O226" t="s">
         <v>38</v>
@@ -11739,7 +11739,7 @@
         <v>37</v>
       </c>
       <c r="L227" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M227" t="s">
         <v>38</v>
@@ -11756,13 +11756,13 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D228">
         <v>111146</v>
       </c>
       <c r="E228" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F228">
         <v>5</v>
@@ -11783,10 +11783,10 @@
         <v>21</v>
       </c>
       <c r="L228" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M228" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P228" t="s">
         <v>26</v>
@@ -11806,7 +11806,7 @@
         <v>114105</v>
       </c>
       <c r="E229" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F229">
         <v>5</v>
@@ -11827,10 +11827,10 @@
         <v>21</v>
       </c>
       <c r="L229" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O229" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q229" t="s">
         <v>26</v>
@@ -11865,13 +11865,13 @@
         <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K230" t="s">
         <v>48</v>
       </c>
       <c r="L230" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P230" t="s">
         <v>75</v>
@@ -11915,10 +11915,10 @@
         <v>48</v>
       </c>
       <c r="L231" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N231" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q231" t="s">
         <v>75</v>
@@ -11959,7 +11959,7 @@
         <v>48</v>
       </c>
       <c r="L232" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N232" t="s">
         <v>60</v>
@@ -11982,7 +11982,7 @@
         <v>111143</v>
       </c>
       <c r="E233" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F233">
         <v>4</v>
@@ -12003,7 +12003,7 @@
         <v>37</v>
       </c>
       <c r="L233" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O233" t="s">
         <v>66</v>
@@ -12026,7 +12026,7 @@
         <v>112143</v>
       </c>
       <c r="E234" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F234">
         <v>4</v>
@@ -12047,7 +12047,7 @@
         <v>37</v>
       </c>
       <c r="L234" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N234" t="s">
         <v>38</v>
@@ -12070,7 +12070,7 @@
         <v>112143</v>
       </c>
       <c r="E235" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -12091,7 +12091,7 @@
         <v>37</v>
       </c>
       <c r="L235" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N235" t="s">
         <v>154</v>
@@ -12114,7 +12114,7 @@
         <v>113143</v>
       </c>
       <c r="E236" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -12135,7 +12135,7 @@
         <v>37</v>
       </c>
       <c r="L236" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q236" t="s">
         <v>68</v>
@@ -12158,7 +12158,7 @@
         <v>111354</v>
       </c>
       <c r="E237" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -12179,7 +12179,7 @@
         <v>37</v>
       </c>
       <c r="L237" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M237" t="s">
         <v>66</v>
@@ -12202,7 +12202,7 @@
         <v>113354</v>
       </c>
       <c r="E238" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -12223,7 +12223,7 @@
         <v>37</v>
       </c>
       <c r="L238" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q238" t="s">
         <v>66</v>
@@ -12232,7 +12232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -12240,119 +12240,122 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D239">
-        <v>111142</v>
+        <v>113143</v>
       </c>
       <c r="E239" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="F239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="K239" t="s">
         <v>21</v>
       </c>
       <c r="L239" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="M239" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="O239" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2022</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D240">
-        <v>111352</v>
+        <v>113142</v>
       </c>
       <c r="E240" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240">
         <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
       <c r="K240" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L240" t="s">
-        <v>290</v>
-      </c>
-      <c r="R240" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="P240" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2022</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D241">
-        <v>111350</v>
+        <v>113149</v>
       </c>
       <c r="E241" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G241">
         <v>2</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
       <c r="K241" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L241" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="O241" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -12384,13 +12387,13 @@
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K242" t="s">
         <v>37</v>
       </c>
       <c r="L242" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O242" t="s">
         <v>66</v>
@@ -12434,10 +12437,10 @@
         <v>37</v>
       </c>
       <c r="L243" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="R243" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -12454,7 +12457,7 @@
         <v>111354</v>
       </c>
       <c r="E244" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F244">
         <v>4</v>
@@ -12475,7 +12478,7 @@
         <v>37</v>
       </c>
       <c r="L244" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M244" t="s">
         <v>68</v>
@@ -12498,7 +12501,7 @@
         <v>112354</v>
       </c>
       <c r="E245" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -12519,7 +12522,7 @@
         <v>37</v>
       </c>
       <c r="L245" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M245" t="s">
         <v>38</v>
@@ -12542,7 +12545,7 @@
         <v>114306</v>
       </c>
       <c r="E246" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -12563,7 +12566,7 @@
         <v>37</v>
       </c>
       <c r="L246" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M246" t="s">
         <v>66</v>
@@ -12607,13 +12610,13 @@
         <v>37</v>
       </c>
       <c r="L247" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N247" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P247" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -12651,7 +12654,7 @@
         <v>37</v>
       </c>
       <c r="L248" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N248" t="s">
         <v>68</v>
@@ -12674,7 +12677,7 @@
         <v>111798</v>
       </c>
       <c r="E249" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -12695,7 +12698,7 @@
         <v>48</v>
       </c>
       <c r="L249" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N249" t="s">
         <v>73</v>
@@ -12739,7 +12742,7 @@
         <v>21</v>
       </c>
       <c r="L250" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M250" t="s">
         <v>25</v>
@@ -12783,7 +12786,7 @@
         <v>21</v>
       </c>
       <c r="L251" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M251" t="s">
         <v>26</v>
@@ -12827,7 +12830,7 @@
         <v>21</v>
       </c>
       <c r="L252" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M252" t="s">
         <v>23</v>
@@ -12871,13 +12874,13 @@
         <v>37</v>
       </c>
       <c r="L253" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O253" t="s">
         <v>38</v>
       </c>
       <c r="Q253" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -12915,10 +12918,10 @@
         <v>37</v>
       </c>
       <c r="L254" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O254" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q254" t="s">
         <v>66</v>
@@ -12938,7 +12941,7 @@
         <v>112758</v>
       </c>
       <c r="E255" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -12959,7 +12962,7 @@
         <v>48</v>
       </c>
       <c r="L255" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N255" t="s">
         <v>75</v>
@@ -12982,7 +12985,7 @@
         <v>113946</v>
       </c>
       <c r="E256" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F256">
         <v>3</v>
@@ -12997,13 +13000,13 @@
         <v>3</v>
       </c>
       <c r="J256" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K256" t="s">
         <v>48</v>
       </c>
       <c r="L256" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P256" t="s">
         <v>52</v>
@@ -13023,7 +13026,7 @@
         <v>111794</v>
       </c>
       <c r="E257" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -13038,13 +13041,13 @@
         <v>3</v>
       </c>
       <c r="J257" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K257" t="s">
         <v>48</v>
       </c>
       <c r="L257" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O257" t="s">
         <v>60</v>
@@ -13067,7 +13070,7 @@
         <v>113753</v>
       </c>
       <c r="E258" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -13088,7 +13091,7 @@
         <v>48</v>
       </c>
       <c r="L258" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O258" t="s">
         <v>75</v>
@@ -13111,7 +13114,7 @@
         <v>113753</v>
       </c>
       <c r="E259" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F259">
         <v>4</v>
@@ -13126,19 +13129,19 @@
         <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K259" t="s">
         <v>48</v>
       </c>
       <c r="L259" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O259" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q259" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -13176,7 +13179,7 @@
         <v>37</v>
       </c>
       <c r="L260" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N260" t="s">
         <v>66</v>
@@ -13220,7 +13223,7 @@
         <v>37</v>
       </c>
       <c r="L261" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N261" t="s">
         <v>68</v>
@@ -13258,13 +13261,13 @@
         <v>3</v>
       </c>
       <c r="J262" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K262" t="s">
         <v>37</v>
       </c>
       <c r="L262" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N262" t="s">
         <v>38</v>
@@ -13308,7 +13311,7 @@
         <v>37</v>
       </c>
       <c r="L263" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M263" t="s">
         <v>68</v>
@@ -13349,13 +13352,13 @@
         <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K264" t="s">
         <v>37</v>
       </c>
       <c r="L264" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M264" t="s">
         <v>38</v>
@@ -13402,10 +13405,10 @@
         <v>37</v>
       </c>
       <c r="L265" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N265" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O265" t="s">
         <v>68</v>
@@ -13446,7 +13449,7 @@
         <v>37</v>
       </c>
       <c r="L266" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M266" t="s">
         <v>38</v>
@@ -13493,7 +13496,7 @@
         <v>37</v>
       </c>
       <c r="L267" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M267" t="s">
         <v>68</v>
@@ -13513,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D268">
         <v>111149</v>
@@ -13540,7 +13543,7 @@
         <v>21</v>
       </c>
       <c r="L268" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N268" t="s">
         <v>26</v>
@@ -13557,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D269">
         <v>111149</v>
@@ -13584,7 +13587,7 @@
         <v>21</v>
       </c>
       <c r="L269" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M269" t="s">
         <v>25</v>
@@ -13607,7 +13610,7 @@
         <v>113143</v>
       </c>
       <c r="E270" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F270">
         <v>4</v>
@@ -13622,16 +13625,16 @@
         <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K270" t="s">
         <v>37</v>
       </c>
       <c r="L270" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q270" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="R270" t="s">
         <v>42</v>
@@ -13645,13 +13648,13 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D271">
         <v>111143</v>
       </c>
       <c r="E271" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F271">
         <v>4</v>
@@ -13672,7 +13675,7 @@
         <v>21</v>
       </c>
       <c r="L271" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P271" t="s">
         <v>23</v>
@@ -13695,7 +13698,7 @@
         <v>114102</v>
       </c>
       <c r="E272" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F272">
         <v>4</v>
@@ -13716,13 +13719,13 @@
         <v>21</v>
       </c>
       <c r="L272" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q272" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R272" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -13760,7 +13763,7 @@
         <v>37</v>
       </c>
       <c r="L273" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M273" t="s">
         <v>38</v>
@@ -13786,7 +13789,7 @@
         <v>114302</v>
       </c>
       <c r="E274" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F274">
         <v>6</v>
@@ -13807,10 +13810,10 @@
         <v>37</v>
       </c>
       <c r="L274" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O274" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q274" t="s">
         <v>38</v>
@@ -13845,13 +13848,13 @@
         <v>3</v>
       </c>
       <c r="J275" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K275" t="s">
         <v>48</v>
       </c>
       <c r="L275" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N275" t="s">
         <v>73</v>
@@ -13895,7 +13898,7 @@
         <v>48</v>
       </c>
       <c r="L276" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N276" t="s">
         <v>75</v>
@@ -13939,7 +13942,7 @@
         <v>48</v>
       </c>
       <c r="L277" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N277" t="s">
         <v>72</v>
@@ -13962,7 +13965,7 @@
         <v>111987</v>
       </c>
       <c r="E278" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F278">
         <v>4</v>
@@ -13977,13 +13980,13 @@
         <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K278" t="s">
         <v>48</v>
       </c>
       <c r="L278" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N278" t="s">
         <v>60</v>
@@ -14006,7 +14009,7 @@
         <v>111987</v>
       </c>
       <c r="E279" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F279">
         <v>4</v>
@@ -14021,13 +14024,13 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K279" t="s">
         <v>48</v>
       </c>
       <c r="L279" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N279" t="s">
         <v>73</v>
@@ -14071,7 +14074,7 @@
         <v>37</v>
       </c>
       <c r="L280" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N280" t="s">
         <v>38</v>
@@ -14109,13 +14112,13 @@
         <v>3</v>
       </c>
       <c r="J281" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K281" t="s">
         <v>37</v>
       </c>
       <c r="L281" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N281" t="s">
         <v>66</v>
@@ -14159,7 +14162,7 @@
         <v>37</v>
       </c>
       <c r="L282" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M282" t="s">
         <v>89</v>
@@ -14203,7 +14206,7 @@
         <v>21</v>
       </c>
       <c r="L283" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N283" t="s">
         <v>25</v>
@@ -14247,16 +14250,16 @@
         <v>37</v>
       </c>
       <c r="L284" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M284" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O284" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q284" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -14294,7 +14297,7 @@
         <v>21</v>
       </c>
       <c r="L285" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M285" t="s">
         <v>23</v>
@@ -14341,7 +14344,7 @@
         <v>21</v>
       </c>
       <c r="L286" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M286" t="s">
         <v>26</v>
@@ -14388,7 +14391,7 @@
         <v>37</v>
       </c>
       <c r="L287" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O287" t="s">
         <v>68</v>
@@ -14426,13 +14429,13 @@
         <v>3</v>
       </c>
       <c r="J288" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K288" t="s">
         <v>37</v>
       </c>
       <c r="L288" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O288" t="s">
         <v>38</v>
@@ -14476,7 +14479,7 @@
         <v>37</v>
       </c>
       <c r="L289" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O289" t="s">
         <v>66</v>
@@ -14520,7 +14523,7 @@
         <v>21</v>
       </c>
       <c r="L290" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M290" t="s">
         <v>25</v>
@@ -14564,7 +14567,7 @@
         <v>48</v>
       </c>
       <c r="L291" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N291" t="s">
         <v>75</v>
@@ -14602,13 +14605,13 @@
         <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K292" t="s">
         <v>48</v>
       </c>
       <c r="L292" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O292" t="s">
         <v>60</v>
@@ -14652,7 +14655,7 @@
         <v>48</v>
       </c>
       <c r="L293" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O293" t="s">
         <v>75</v>
@@ -14696,7 +14699,7 @@
         <v>37</v>
       </c>
       <c r="L294" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M294" t="s">
         <v>38</v>
@@ -14743,7 +14746,7 @@
         <v>37</v>
       </c>
       <c r="L295" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M295" t="s">
         <v>66</v>
@@ -14790,7 +14793,7 @@
         <v>37</v>
       </c>
       <c r="L296" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M296" t="s">
         <v>68</v>
@@ -14837,7 +14840,7 @@
         <v>48</v>
       </c>
       <c r="L297" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P297" t="s">
         <v>60</v>
@@ -14881,10 +14884,10 @@
         <v>48</v>
       </c>
       <c r="L298" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P298" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -14922,7 +14925,7 @@
         <v>48</v>
       </c>
       <c r="L299" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q299" t="s">
         <v>49</v>
@@ -14957,16 +14960,16 @@
         <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K300" t="s">
         <v>48</v>
       </c>
       <c r="L300" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N300" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P300" t="s">
         <v>60</v>
@@ -15001,19 +15004,19 @@
         <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K301" t="s">
         <v>48</v>
       </c>
       <c r="L301" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N301" t="s">
         <v>60</v>
       </c>
       <c r="P301" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -15030,7 +15033,7 @@
         <v>111791</v>
       </c>
       <c r="E302" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F302">
         <v>4</v>
@@ -15045,16 +15048,16 @@
         <v>4</v>
       </c>
       <c r="J302" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K302" t="s">
         <v>48</v>
       </c>
       <c r="L302" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N302" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P302" t="s">
         <v>75</v>
@@ -15074,7 +15077,7 @@
         <v>112750</v>
       </c>
       <c r="E303" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F303">
         <v>4</v>
@@ -15089,16 +15092,16 @@
         <v>4</v>
       </c>
       <c r="J303" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K303" t="s">
         <v>48</v>
       </c>
       <c r="L303" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N303" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P303" t="s">
         <v>60</v>
@@ -15118,7 +15121,7 @@
         <v>113750</v>
       </c>
       <c r="E304" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F304">
         <v>4</v>
@@ -15139,7 +15142,7 @@
         <v>48</v>
       </c>
       <c r="L304" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N304" t="s">
         <v>73</v>
@@ -15183,10 +15186,10 @@
         <v>37</v>
       </c>
       <c r="L305" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N305" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q305" t="s">
         <v>38</v>
@@ -15227,16 +15230,16 @@
         <v>37</v>
       </c>
       <c r="L306" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N306" t="s">
         <v>123</v>
       </c>
       <c r="Q306" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -15244,37 +15247,37 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D307">
-        <v>111143</v>
+        <v>113146</v>
       </c>
       <c r="E307" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F307">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I307">
         <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="K307" t="s">
         <v>21</v>
       </c>
       <c r="L307" t="s">
-        <v>196</v>
-      </c>
-      <c r="N307" t="s">
-        <v>197</v>
+        <v>382</v>
+      </c>
+      <c r="R307" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -15306,13 +15309,13 @@
         <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K308" t="s">
         <v>37</v>
       </c>
       <c r="L308" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M308" t="s">
         <v>94</v>
@@ -15356,7 +15359,7 @@
         <v>48</v>
       </c>
       <c r="L309" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P309" t="s">
         <v>60</v>
@@ -15379,7 +15382,7 @@
         <v>111984</v>
       </c>
       <c r="E310" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F310">
         <v>4</v>
@@ -15394,16 +15397,16 @@
         <v>3</v>
       </c>
       <c r="J310" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K310" t="s">
         <v>48</v>
       </c>
       <c r="L310" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P310" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -15420,7 +15423,7 @@
         <v>111984</v>
       </c>
       <c r="E311" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F311">
         <v>4</v>
@@ -15441,10 +15444,10 @@
         <v>48</v>
       </c>
       <c r="L311" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q311" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -15476,16 +15479,16 @@
         <v>3</v>
       </c>
       <c r="J312" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K312" t="s">
         <v>37</v>
       </c>
       <c r="L312" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M312" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P312" t="s">
         <v>123</v>
@@ -15526,13 +15529,13 @@
         <v>37</v>
       </c>
       <c r="L313" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M313" t="s">
         <v>38</v>
       </c>
       <c r="O313" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -15543,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D314">
         <v>111142</v>
@@ -15570,10 +15573,10 @@
         <v>21</v>
       </c>
       <c r="L314" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M314" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O314" t="s">
         <v>25</v>
@@ -15587,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D315">
         <v>111147</v>
@@ -15614,7 +15617,7 @@
         <v>21</v>
       </c>
       <c r="L315" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N315" t="s">
         <v>23</v>
@@ -15658,7 +15661,7 @@
         <v>21</v>
       </c>
       <c r="L316" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M316" t="s">
         <v>23</v>
@@ -15681,7 +15684,7 @@
         <v>111987</v>
       </c>
       <c r="E317" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F317">
         <v>4</v>
@@ -15702,7 +15705,7 @@
         <v>48</v>
       </c>
       <c r="L317" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M317" t="s">
         <v>60</v>
@@ -15725,7 +15728,7 @@
         <v>111987</v>
       </c>
       <c r="E318" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F318">
         <v>4</v>
@@ -15746,7 +15749,7 @@
         <v>48</v>
       </c>
       <c r="L318" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M318" t="s">
         <v>75</v>
@@ -15784,13 +15787,13 @@
         <v>4</v>
       </c>
       <c r="J319" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K319" t="s">
         <v>37</v>
       </c>
       <c r="L319" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M319" t="s">
         <v>66</v>
@@ -15816,7 +15819,7 @@
         <v>114302</v>
       </c>
       <c r="E320" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F320">
         <v>6</v>
@@ -15837,13 +15840,13 @@
         <v>37</v>
       </c>
       <c r="L320" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M320" t="s">
         <v>38</v>
       </c>
       <c r="R320" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -15881,7 +15884,7 @@
         <v>21</v>
       </c>
       <c r="L321" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M321" t="s">
         <v>26</v>
@@ -15919,13 +15922,13 @@
         <v>3</v>
       </c>
       <c r="J322" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K322" t="s">
         <v>48</v>
       </c>
       <c r="L322" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M322" t="s">
         <v>60</v>
@@ -15948,7 +15951,7 @@
         <v>111983</v>
       </c>
       <c r="E323" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F323">
         <v>4</v>
@@ -15963,13 +15966,13 @@
         <v>4</v>
       </c>
       <c r="J323" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K323" t="s">
         <v>48</v>
       </c>
       <c r="L323" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O323" t="s">
         <v>75</v>
@@ -15992,7 +15995,7 @@
         <v>111983</v>
       </c>
       <c r="E324" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F324">
         <v>4</v>
@@ -16013,10 +16016,10 @@
         <v>48</v>
       </c>
       <c r="L324" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N324" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -16033,7 +16036,7 @@
         <v>112758</v>
       </c>
       <c r="E325" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F325">
         <v>4</v>
@@ -16048,13 +16051,13 @@
         <v>3</v>
       </c>
       <c r="J325" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K325" t="s">
         <v>48</v>
       </c>
       <c r="L325" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M325" t="s">
         <v>73</v>
@@ -16077,7 +16080,7 @@
         <v>113945</v>
       </c>
       <c r="E326" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F326">
         <v>3</v>
@@ -16098,7 +16101,7 @@
         <v>48</v>
       </c>
       <c r="L326" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q326" t="s">
         <v>56</v>
@@ -16139,10 +16142,10 @@
         <v>48</v>
       </c>
       <c r="L327" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P327" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -16180,10 +16183,10 @@
         <v>48</v>
       </c>
       <c r="L328" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N328" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O328" t="s">
         <v>60</v>
@@ -16218,13 +16221,13 @@
         <v>3</v>
       </c>
       <c r="J329" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K329" t="s">
         <v>48</v>
       </c>
       <c r="L329" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N329" t="s">
         <v>73</v>
@@ -16268,7 +16271,7 @@
         <v>37</v>
       </c>
       <c r="L330" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P330" t="s">
         <v>68</v>
@@ -16312,7 +16315,7 @@
         <v>37</v>
       </c>
       <c r="L331" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N331" t="s">
         <v>38</v>
@@ -16335,7 +16338,7 @@
         <v>111143</v>
       </c>
       <c r="E332" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F332">
         <v>4</v>
@@ -16356,7 +16359,7 @@
         <v>37</v>
       </c>
       <c r="L332" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O332" t="s">
         <v>66</v>
@@ -16400,7 +16403,7 @@
         <v>37</v>
       </c>
       <c r="L333" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M333" t="s">
         <v>42</v>
@@ -16444,7 +16447,7 @@
         <v>37</v>
       </c>
       <c r="L334" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M334" t="s">
         <v>38</v>
@@ -16488,10 +16491,10 @@
         <v>21</v>
       </c>
       <c r="L335" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M335" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O335" t="s">
         <v>25</v>
@@ -16532,10 +16535,10 @@
         <v>37</v>
       </c>
       <c r="L336" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R336" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16552,7 +16555,7 @@
         <v>111986</v>
       </c>
       <c r="E337" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F337">
         <v>3</v>
@@ -16573,13 +16576,13 @@
         <v>48</v>
       </c>
       <c r="L337" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P337" t="s">
         <v>75</v>
       </c>
       <c r="Q337" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16617,7 +16620,7 @@
         <v>37</v>
       </c>
       <c r="L338" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N338" t="s">
         <v>38</v>
@@ -16661,7 +16664,7 @@
         <v>37</v>
       </c>
       <c r="L339" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N339" t="s">
         <v>66</v>
@@ -16705,7 +16708,7 @@
         <v>37</v>
       </c>
       <c r="L340" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N340" t="s">
         <v>68</v>
@@ -16749,7 +16752,7 @@
         <v>37</v>
       </c>
       <c r="L341" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M341" t="s">
         <v>68</v>
@@ -16796,7 +16799,7 @@
         <v>37</v>
       </c>
       <c r="L342" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M342" t="s">
         <v>66</v>
@@ -16843,7 +16846,7 @@
         <v>48</v>
       </c>
       <c r="L343" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N343" t="s">
         <v>60</v>
@@ -16887,13 +16890,13 @@
         <v>48</v>
       </c>
       <c r="L344" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N344" t="s">
         <v>73</v>
       </c>
       <c r="P344" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16910,7 +16913,7 @@
         <v>114505</v>
       </c>
       <c r="E345" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F345">
         <v>4</v>
@@ -16931,7 +16934,7 @@
         <v>21</v>
       </c>
       <c r="L345" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N345" t="s">
         <v>23</v>
@@ -16954,7 +16957,7 @@
         <v>112945</v>
       </c>
       <c r="E346" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F346">
         <v>3</v>
@@ -16975,7 +16978,7 @@
         <v>48</v>
       </c>
       <c r="L346" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P346" t="s">
         <v>56</v>
@@ -16995,7 +16998,7 @@
         <v>111986</v>
       </c>
       <c r="E347" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F347">
         <v>3</v>
@@ -17016,7 +17019,7 @@
         <v>48</v>
       </c>
       <c r="L347" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N347" t="s">
         <v>52</v>
@@ -17036,7 +17039,7 @@
         <v>113945</v>
       </c>
       <c r="E348" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F348">
         <v>3</v>
@@ -17057,7 +17060,7 @@
         <v>48</v>
       </c>
       <c r="L348" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q348" t="s">
         <v>52</v>
@@ -17092,13 +17095,13 @@
         <v>3</v>
       </c>
       <c r="J349" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K349" t="s">
         <v>37</v>
       </c>
       <c r="L349" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N349" t="s">
         <v>66</v>
@@ -17142,7 +17145,7 @@
         <v>37</v>
       </c>
       <c r="L350" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N350" t="s">
         <v>38</v>
@@ -17186,10 +17189,10 @@
         <v>37</v>
       </c>
       <c r="L351" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M351" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17221,13 +17224,13 @@
         <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K352" t="s">
         <v>48</v>
       </c>
       <c r="L352" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M352" t="s">
         <v>75</v>
@@ -17265,19 +17268,19 @@
         <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K353" t="s">
         <v>48</v>
       </c>
       <c r="L353" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M353" t="s">
         <v>60</v>
       </c>
       <c r="P353" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -17315,7 +17318,7 @@
         <v>48</v>
       </c>
       <c r="L354" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P354" t="s">
         <v>73</v>
@@ -17324,7 +17327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -17359,7 +17362,7 @@
         <v>48</v>
       </c>
       <c r="L355" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M355" t="s">
         <v>106</v>
@@ -17368,7 +17371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2023</v>
       </c>
@@ -17397,13 +17400,13 @@
         <v>3</v>
       </c>
       <c r="J356" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K356" t="s">
         <v>48</v>
       </c>
       <c r="L356" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O356" t="s">
         <v>72</v>
@@ -17412,7 +17415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2018</v>
       </c>
@@ -17441,13 +17444,13 @@
         <v>4</v>
       </c>
       <c r="J357" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K357" t="s">
         <v>48</v>
       </c>
       <c r="L357" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M357" t="s">
         <v>75</v>
@@ -17491,10 +17494,10 @@
         <v>37</v>
       </c>
       <c r="L358" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P358" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q358" t="s">
         <v>38</v>
@@ -17514,7 +17517,7 @@
         <v>114304</v>
       </c>
       <c r="E359" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F359">
         <v>4</v>
@@ -17535,7 +17538,7 @@
         <v>37</v>
       </c>
       <c r="L359" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N359" t="s">
         <v>66</v>
@@ -17558,7 +17561,7 @@
         <v>111794</v>
       </c>
       <c r="E360" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F360">
         <v>4</v>
@@ -17579,7 +17582,7 @@
         <v>48</v>
       </c>
       <c r="L360" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q360" t="s">
         <v>62</v>
@@ -17599,7 +17602,7 @@
         <v>111798</v>
       </c>
       <c r="E361" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F361">
         <v>4</v>
@@ -17620,7 +17623,7 @@
         <v>48</v>
       </c>
       <c r="L361" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M361" t="s">
         <v>73</v>
@@ -17658,16 +17661,16 @@
         <v>4</v>
       </c>
       <c r="J362" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K362" t="s">
         <v>48</v>
       </c>
       <c r="L362" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M362" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O362" t="s">
         <v>60</v>
@@ -17708,7 +17711,7 @@
         <v>21</v>
       </c>
       <c r="L363" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N363" t="s">
         <v>135</v>
@@ -17752,7 +17755,7 @@
         <v>21</v>
       </c>
       <c r="L364" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N364" t="s">
         <v>23</v>
@@ -17796,7 +17799,7 @@
         <v>21</v>
       </c>
       <c r="L365" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N365" t="s">
         <v>26</v>
@@ -17805,7 +17808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2022</v>
       </c>
@@ -17813,13 +17816,13 @@
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D366">
-        <v>111144</v>
+        <v>113147</v>
       </c>
       <c r="E366" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F366">
         <v>4</v>
@@ -17834,16 +17837,19 @@
         <v>3</v>
       </c>
       <c r="J366" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="K366" t="s">
         <v>21</v>
       </c>
       <c r="L366" t="s">
-        <v>371</v>
+        <v>392</v>
+      </c>
+      <c r="N366" t="s">
+        <v>287</v>
       </c>
       <c r="Q366" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -17881,10 +17887,10 @@
         <v>37</v>
       </c>
       <c r="L367" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="R367" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -17901,7 +17907,7 @@
         <v>114108</v>
       </c>
       <c r="E368" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F368">
         <v>4</v>
@@ -17922,7 +17928,7 @@
         <v>21</v>
       </c>
       <c r="L368" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M368" t="s">
         <v>26</v>
@@ -17945,7 +17951,7 @@
         <v>114108</v>
       </c>
       <c r="E369" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F369">
         <v>4</v>
@@ -17966,7 +17972,7 @@
         <v>21</v>
       </c>
       <c r="L369" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M369" t="s">
         <v>25</v>
@@ -17975,7 +17981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -17983,13 +17989,13 @@
         <v>1</v>
       </c>
       <c r="C370" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D370">
-        <v>111145</v>
+        <v>113148</v>
       </c>
       <c r="E370" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F370">
         <v>4</v>
@@ -18004,19 +18010,16 @@
         <v>3</v>
       </c>
       <c r="J370" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
       <c r="K370" t="s">
         <v>21</v>
       </c>
       <c r="L370" t="s">
-        <v>173</v>
-      </c>
-      <c r="N370" t="s">
-        <v>68</v>
-      </c>
-      <c r="P370" t="s">
-        <v>174</v>
+        <v>434</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -18054,7 +18057,7 @@
         <v>37</v>
       </c>
       <c r="L371" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O371" t="s">
         <v>66</v>
@@ -18071,7 +18074,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D372">
         <v>111144</v>
@@ -18098,7 +18101,7 @@
         <v>21</v>
       </c>
       <c r="L372" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O372" t="s">
         <v>23</v>
@@ -18142,7 +18145,7 @@
         <v>21</v>
       </c>
       <c r="L373" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O373" t="s">
         <v>25</v>
@@ -18186,10 +18189,10 @@
         <v>37</v>
       </c>
       <c r="L374" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R374" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -18227,7 +18230,7 @@
         <v>48</v>
       </c>
       <c r="L375" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M375" t="s">
         <v>75</v>
@@ -18265,13 +18268,13 @@
         <v>3</v>
       </c>
       <c r="J376" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K376" t="s">
         <v>48</v>
       </c>
       <c r="L376" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M376" t="s">
         <v>73</v>
@@ -18280,106 +18283,103 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2022</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C377" t="s">
         <v>18</v>
       </c>
       <c r="D377">
-        <v>111146</v>
+        <v>111351</v>
       </c>
       <c r="E377" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F377">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I377">
         <v>3</v>
       </c>
       <c r="J377" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="K377" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L377" t="s">
-        <v>202</v>
-      </c>
-      <c r="O377" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="P377" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2022</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C378" t="s">
         <v>18</v>
       </c>
       <c r="D378">
-        <v>111147</v>
+        <v>111349</v>
       </c>
       <c r="E378" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F378">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G378">
         <v>2</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J378" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="K378" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L378" t="s">
-        <v>396</v>
-      </c>
-      <c r="N378" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
       <c r="Q378" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2022</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C379" t="s">
         <v>18</v>
       </c>
       <c r="D379">
-        <v>111148</v>
+        <v>111352</v>
       </c>
       <c r="E379" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F379">
         <v>4</v>
@@ -18394,19 +18394,16 @@
         <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="K379" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L379" t="s">
-        <v>438</v>
-      </c>
-      <c r="P379" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="R379" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
     </row>
     <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -18423,7 +18420,7 @@
         <v>111983</v>
       </c>
       <c r="E380" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F380">
         <v>4</v>
@@ -18444,7 +18441,7 @@
         <v>48</v>
       </c>
       <c r="L380" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P380" t="s">
         <v>73</v>
@@ -18467,7 +18464,7 @@
         <v>111983</v>
       </c>
       <c r="E381" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F381">
         <v>4</v>
@@ -18482,13 +18479,13 @@
         <v>4</v>
       </c>
       <c r="J381" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K381" t="s">
         <v>48</v>
       </c>
       <c r="L381" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P381" t="s">
         <v>60</v>
@@ -18511,7 +18508,7 @@
         <v>111986</v>
       </c>
       <c r="E382" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F382">
         <v>3</v>
@@ -18526,13 +18523,13 @@
         <v>2</v>
       </c>
       <c r="J382" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K382" t="s">
         <v>48</v>
       </c>
       <c r="L382" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="O382" t="s">
         <v>52</v>
@@ -18552,7 +18549,7 @@
         <v>111986</v>
       </c>
       <c r="E383" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F383">
         <v>3</v>
@@ -18573,7 +18570,7 @@
         <v>48</v>
       </c>
       <c r="L383" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q383" t="s">
         <v>56</v>
@@ -18593,7 +18590,7 @@
         <v>112944</v>
       </c>
       <c r="E384" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F384">
         <v>3</v>
@@ -18614,7 +18611,7 @@
         <v>48</v>
       </c>
       <c r="L384" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q384" t="s">
         <v>52</v>
@@ -18655,7 +18652,7 @@
         <v>21</v>
       </c>
       <c r="L385" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M385" t="s">
         <v>25</v>
@@ -18678,7 +18675,7 @@
         <v>111987</v>
       </c>
       <c r="E386" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F386">
         <v>4</v>
@@ -18699,10 +18696,10 @@
         <v>48</v>
       </c>
       <c r="L386" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M386" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q386" t="s">
         <v>60</v>
@@ -18722,7 +18719,7 @@
         <v>111984</v>
       </c>
       <c r="E387" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F387">
         <v>4</v>
@@ -18737,19 +18734,19 @@
         <v>3</v>
       </c>
       <c r="J387" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K387" t="s">
         <v>48</v>
       </c>
       <c r="L387" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M387" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q387" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18787,7 +18784,7 @@
         <v>21</v>
       </c>
       <c r="L388" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N388" t="s">
         <v>25</v>
@@ -18831,7 +18828,7 @@
         <v>37</v>
       </c>
       <c r="L389" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O389" t="s">
         <v>68</v>
@@ -18875,13 +18872,13 @@
         <v>48</v>
       </c>
       <c r="L390" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P390" t="s">
         <v>73</v>
       </c>
       <c r="Q390" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18913,13 +18910,13 @@
         <v>3</v>
       </c>
       <c r="J391" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K391" t="s">
         <v>48</v>
       </c>
       <c r="L391" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N391" t="s">
         <v>73</v>
@@ -18942,7 +18939,7 @@
         <v>113756</v>
       </c>
       <c r="E392" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F392">
         <v>4</v>
@@ -18963,13 +18960,13 @@
         <v>48</v>
       </c>
       <c r="L392" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N392" t="s">
         <v>60</v>
       </c>
       <c r="P392" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18986,7 +18983,7 @@
         <v>113756</v>
       </c>
       <c r="E393" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F393">
         <v>4</v>
@@ -19007,7 +19004,7 @@
         <v>48</v>
       </c>
       <c r="L393" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N393" t="s">
         <v>73</v>
@@ -19030,7 +19027,7 @@
         <v>113756</v>
       </c>
       <c r="E394" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F394">
         <v>4</v>
@@ -19045,19 +19042,19 @@
         <v>3</v>
       </c>
       <c r="J394" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K394" t="s">
         <v>48</v>
       </c>
       <c r="L394" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N394" t="s">
         <v>75</v>
       </c>
       <c r="P394" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="395" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19089,13 +19086,13 @@
         <v>3</v>
       </c>
       <c r="J395" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K395" t="s">
         <v>48</v>
       </c>
       <c r="L395" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O395" t="s">
         <v>75</v>
@@ -19133,19 +19130,19 @@
         <v>3</v>
       </c>
       <c r="J396" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K396" t="s">
         <v>48</v>
       </c>
       <c r="L396" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O396" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q396" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19183,7 +19180,7 @@
         <v>21</v>
       </c>
       <c r="L397" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M397" t="s">
         <v>23</v>
@@ -19230,13 +19227,13 @@
         <v>21</v>
       </c>
       <c r="L398" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M398" t="s">
         <v>25</v>
       </c>
       <c r="O398" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19274,7 +19271,7 @@
         <v>48</v>
       </c>
       <c r="L399" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N399" t="s">
         <v>75</v>
@@ -19312,19 +19309,19 @@
         <v>3</v>
       </c>
       <c r="J400" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K400" t="s">
         <v>48</v>
       </c>
       <c r="L400" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N400" t="s">
         <v>73</v>
       </c>
       <c r="P400" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -19356,13 +19353,13 @@
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K401" t="s">
         <v>48</v>
       </c>
       <c r="L401" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N401" t="s">
         <v>72</v>
@@ -19385,7 +19382,7 @@
         <v>111986</v>
       </c>
       <c r="E402" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F402">
         <v>3</v>
@@ -19400,13 +19397,13 @@
         <v>2</v>
       </c>
       <c r="J402" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K402" t="s">
         <v>48</v>
       </c>
       <c r="L402" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N402" t="s">
         <v>52</v>
@@ -19426,7 +19423,7 @@
         <v>112944</v>
       </c>
       <c r="E403" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F403">
         <v>3</v>
@@ -19447,7 +19444,7 @@
         <v>48</v>
       </c>
       <c r="L403" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P403" t="s">
         <v>52</v>
@@ -19467,7 +19464,7 @@
         <v>113945</v>
       </c>
       <c r="E404" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F404">
         <v>3</v>
@@ -19482,13 +19479,13 @@
         <v>2</v>
       </c>
       <c r="J404" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K404" t="s">
         <v>48</v>
       </c>
       <c r="L404" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N404" t="s">
         <v>56</v>
@@ -19529,7 +19526,7 @@
         <v>48</v>
       </c>
       <c r="L405" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N405" t="s">
         <v>73</v>
@@ -19567,19 +19564,19 @@
         <v>3</v>
       </c>
       <c r="J406" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K406" t="s">
         <v>48</v>
       </c>
       <c r="L406" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N406" t="s">
         <v>60</v>
       </c>
       <c r="P406" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -19617,7 +19614,7 @@
         <v>48</v>
       </c>
       <c r="L407" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N407" t="s">
         <v>75</v>
@@ -19640,7 +19637,7 @@
         <v>111146</v>
       </c>
       <c r="E408" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F408">
         <v>5</v>
@@ -19661,10 +19658,10 @@
         <v>37</v>
       </c>
       <c r="L408" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M408" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P408" t="s">
         <v>123</v>
@@ -19684,7 +19681,7 @@
         <v>112146</v>
       </c>
       <c r="E409" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F409">
         <v>5</v>
@@ -19705,71 +19702,71 @@
         <v>37</v>
       </c>
       <c r="L409" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q409" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R409" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2022</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C410" t="s">
         <v>18</v>
       </c>
       <c r="D410">
-        <v>111149</v>
+        <v>111350</v>
       </c>
       <c r="E410" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F410">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G410">
         <v>2</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I410">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J410" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="K410" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L410" t="s">
-        <v>371</v>
-      </c>
-      <c r="R410" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="O410" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2022</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C411" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D411">
-        <v>112145</v>
+        <v>111353</v>
       </c>
       <c r="E411" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F411">
         <v>4</v>
@@ -19784,57 +19781,60 @@
         <v>3</v>
       </c>
       <c r="J411" t="s">
-        <v>175</v>
+        <v>439</v>
       </c>
       <c r="K411" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L411" t="s">
-        <v>173</v>
-      </c>
-      <c r="O411" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="M411" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2022</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C412" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D412">
-        <v>112146</v>
+        <v>111354</v>
       </c>
       <c r="E412" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="F412">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I412">
         <v>3</v>
       </c>
       <c r="J412" t="s">
-        <v>175</v>
+        <v>439</v>
       </c>
       <c r="K412" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L412" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q412" t="s">
-        <v>203</v>
+        <v>422</v>
+      </c>
+      <c r="N412" t="s">
+        <v>66</v>
+      </c>
+      <c r="P412" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -19866,16 +19866,16 @@
         <v>5</v>
       </c>
       <c r="J413" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K413" t="s">
         <v>48</v>
       </c>
       <c r="L413" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M413" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q413" t="s">
         <v>75</v>
@@ -19895,7 +19895,7 @@
         <v>113942</v>
       </c>
       <c r="E414" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F414">
         <v>4</v>
@@ -19910,13 +19910,13 @@
         <v>3</v>
       </c>
       <c r="J414" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K414" t="s">
         <v>48</v>
       </c>
       <c r="L414" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q414" t="s">
         <v>49</v>
@@ -19957,7 +19957,7 @@
         <v>37</v>
       </c>
       <c r="L415" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M415" t="s">
         <v>120</v>
@@ -20001,7 +20001,7 @@
         <v>37</v>
       </c>
       <c r="L416" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M416" t="s">
         <v>123</v>
@@ -20010,7 +20010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2018</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>112945</v>
       </c>
       <c r="E417" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F417">
         <v>3</v>
@@ -20045,13 +20045,13 @@
         <v>48</v>
       </c>
       <c r="L417" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M417" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>111146</v>
       </c>
       <c r="E418" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F418">
         <v>5</v>
@@ -20086,16 +20086,16 @@
         <v>37</v>
       </c>
       <c r="L418" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O418" t="s">
         <v>38</v>
       </c>
       <c r="Q418" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2025</v>
       </c>
@@ -20103,13 +20103,13 @@
         <v>1</v>
       </c>
       <c r="C419" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D419">
         <v>111146</v>
       </c>
       <c r="E419" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F419">
         <v>5</v>
@@ -20130,16 +20130,16 @@
         <v>21</v>
       </c>
       <c r="L419" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O419" t="s">
         <v>26</v>
       </c>
       <c r="P419" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -20168,22 +20168,22 @@
         <v>4</v>
       </c>
       <c r="J420" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K420" t="s">
         <v>37</v>
       </c>
       <c r="L420" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M420" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N420" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -20218,16 +20218,16 @@
         <v>37</v>
       </c>
       <c r="L421" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M421" t="s">
         <v>66</v>
       </c>
       <c r="N421" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>48</v>
       </c>
       <c r="L422" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M422" t="s">
         <v>72</v>
@@ -20274,7 +20274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>48</v>
       </c>
       <c r="L423" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M423" t="s">
         <v>73</v>
@@ -20321,21 +20321,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2022</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C424" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D424">
-        <v>112144</v>
+        <v>111355</v>
       </c>
       <c r="E424" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="F424">
         <v>4</v>
@@ -20350,19 +20350,19 @@
         <v>3</v>
       </c>
       <c r="J424" t="s">
-        <v>175</v>
+        <v>439</v>
       </c>
       <c r="K424" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L424" t="s">
-        <v>236</v>
-      </c>
-      <c r="R424" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="N424" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -20370,13 +20370,13 @@
         <v>1</v>
       </c>
       <c r="C425" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D425">
-        <v>112149</v>
+        <v>111145</v>
       </c>
       <c r="E425" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F425">
         <v>4</v>
@@ -20391,19 +20391,22 @@
         <v>3</v>
       </c>
       <c r="J425" t="s">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="K425" t="s">
         <v>21</v>
       </c>
       <c r="L425" t="s">
-        <v>365</v>
-      </c>
-      <c r="R425" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="N425" t="s">
+        <v>68</v>
+      </c>
+      <c r="P425" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -20411,40 +20414,40 @@
         <v>1</v>
       </c>
       <c r="C426" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D426">
-        <v>112142</v>
+        <v>111143</v>
       </c>
       <c r="E426" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="F426">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I426">
         <v>3</v>
       </c>
       <c r="J426" t="s">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="K426" t="s">
         <v>21</v>
       </c>
       <c r="L426" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="N426" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -20479,7 +20482,7 @@
         <v>37</v>
       </c>
       <c r="L427" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N427" t="s">
         <v>66</v>
@@ -20488,7 +20491,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -20523,7 +20526,7 @@
         <v>37</v>
       </c>
       <c r="L428" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O428" t="s">
         <v>66</v>
@@ -20532,7 +20535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -20567,7 +20570,7 @@
         <v>37</v>
       </c>
       <c r="L429" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O429" t="s">
         <v>38</v>
@@ -20576,7 +20579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -20611,7 +20614,7 @@
         <v>37</v>
       </c>
       <c r="L430" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O430" t="s">
         <v>68</v>
@@ -20620,7 +20623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2023</v>
       </c>
@@ -20634,7 +20637,7 @@
         <v>114505</v>
       </c>
       <c r="E431" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F431">
         <v>4</v>
@@ -20655,7 +20658,7 @@
         <v>21</v>
       </c>
       <c r="L431" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O431" t="s">
         <v>25</v>
@@ -20664,7 +20667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>21</v>
       </c>
       <c r="L432" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P432" t="s">
         <v>23</v>
@@ -20743,7 +20746,7 @@
         <v>21</v>
       </c>
       <c r="L433" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N433" t="s">
         <v>26</v>
@@ -20787,7 +20790,7 @@
         <v>21</v>
       </c>
       <c r="L434" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N434" t="s">
         <v>23</v>
@@ -20831,7 +20834,7 @@
         <v>48</v>
       </c>
       <c r="L435" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O435" t="s">
         <v>60</v>
@@ -20869,13 +20872,13 @@
         <v>3</v>
       </c>
       <c r="J436" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K436" t="s">
         <v>48</v>
       </c>
       <c r="L436" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N436" t="s">
         <v>60</v>
@@ -20913,16 +20916,16 @@
         <v>3</v>
       </c>
       <c r="J437" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K437" t="s">
         <v>48</v>
       </c>
       <c r="L437" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q437" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -20960,7 +20963,7 @@
         <v>48</v>
       </c>
       <c r="L438" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M438" t="s">
         <v>75</v>
@@ -20998,13 +21001,13 @@
         <v>3</v>
       </c>
       <c r="J439" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K439" t="s">
         <v>48</v>
       </c>
       <c r="L439" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M439" t="s">
         <v>60</v>
@@ -21027,7 +21030,7 @@
         <v>112758</v>
       </c>
       <c r="E440" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F440">
         <v>4</v>
@@ -21042,16 +21045,16 @@
         <v>3</v>
       </c>
       <c r="J440" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K440" t="s">
         <v>48</v>
       </c>
       <c r="L440" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M440" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -21068,7 +21071,7 @@
         <v>113946</v>
       </c>
       <c r="E441" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F441">
         <v>3</v>
@@ -21089,7 +21092,7 @@
         <v>48</v>
       </c>
       <c r="L441" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q441" t="s">
         <v>56</v>
@@ -21109,7 +21112,7 @@
         <v>111984</v>
       </c>
       <c r="E442" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F442">
         <v>4</v>
@@ -21130,10 +21133,10 @@
         <v>48</v>
       </c>
       <c r="L442" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M442" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -21171,7 +21174,7 @@
         <v>37</v>
       </c>
       <c r="L443" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O443" t="s">
         <v>68</v>
@@ -21209,16 +21212,16 @@
         <v>3</v>
       </c>
       <c r="J444" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K444" t="s">
         <v>37</v>
       </c>
       <c r="L444" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O444" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="R444" t="s">
         <v>66</v>
@@ -21232,7 +21235,7 @@
         <v>1</v>
       </c>
       <c r="C445" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D445">
         <v>111144</v>
@@ -21259,10 +21262,10 @@
         <v>21</v>
       </c>
       <c r="L445" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="R445" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -21294,13 +21297,13 @@
         <v>3</v>
       </c>
       <c r="J446" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K446" t="s">
         <v>37</v>
       </c>
       <c r="L446" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N446" t="s">
         <v>68</v>
@@ -21344,7 +21347,7 @@
         <v>37</v>
       </c>
       <c r="L447" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N447" t="s">
         <v>66</v>
@@ -21361,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="C448" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D448">
         <v>111148</v>
@@ -21388,7 +21391,7 @@
         <v>21</v>
       </c>
       <c r="L448" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O448" t="s">
         <v>25</v>
@@ -21426,13 +21429,13 @@
         <v>3</v>
       </c>
       <c r="J449" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K449" t="s">
         <v>37</v>
       </c>
       <c r="L449" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M449" t="s">
         <v>66</v>
@@ -21470,13 +21473,13 @@
         <v>3</v>
       </c>
       <c r="J450" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K450" t="s">
         <v>37</v>
       </c>
       <c r="L450" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O450" t="s">
         <v>68</v>
@@ -21520,7 +21523,7 @@
         <v>37</v>
       </c>
       <c r="L451" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O451" t="s">
         <v>38</v>
@@ -21543,7 +21546,7 @@
         <v>111146</v>
       </c>
       <c r="E452" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F452">
         <v>5</v>
@@ -21564,13 +21567,13 @@
         <v>37</v>
       </c>
       <c r="L452" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M452" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O452" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -21587,7 +21590,7 @@
         <v>111146</v>
       </c>
       <c r="E453" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F453">
         <v>5</v>
@@ -21608,7 +21611,7 @@
         <v>37</v>
       </c>
       <c r="L453" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M453" t="s">
         <v>96</v>
@@ -21631,7 +21634,7 @@
         <v>113146</v>
       </c>
       <c r="E454" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F454">
         <v>5</v>
@@ -21646,13 +21649,13 @@
         <v>3</v>
       </c>
       <c r="J454" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K454" t="s">
         <v>37</v>
       </c>
       <c r="L454" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N454" t="s">
         <v>94</v>
@@ -21675,7 +21678,7 @@
         <v>113146</v>
       </c>
       <c r="E455" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F455">
         <v>5</v>
@@ -21696,13 +21699,13 @@
         <v>37</v>
       </c>
       <c r="L455" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M455" t="s">
         <v>66</v>
       </c>
       <c r="O455" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -21740,10 +21743,10 @@
         <v>37</v>
       </c>
       <c r="L456" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P456" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -21781,7 +21784,7 @@
         <v>37</v>
       </c>
       <c r="L457" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O457" t="s">
         <v>66</v>
@@ -21804,7 +21807,7 @@
         <v>114303</v>
       </c>
       <c r="E458" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F458">
         <v>4</v>
@@ -21825,7 +21828,7 @@
         <v>37</v>
       </c>
       <c r="L458" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M458" t="s">
         <v>38</v>
@@ -21848,7 +21851,7 @@
         <v>111354</v>
       </c>
       <c r="E459" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F459">
         <v>4</v>
@@ -21869,7 +21872,7 @@
         <v>37</v>
       </c>
       <c r="L459" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N459" t="s">
         <v>38</v>
@@ -21892,7 +21895,7 @@
         <v>111354</v>
       </c>
       <c r="E460" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F460">
         <v>4</v>
@@ -21913,7 +21916,7 @@
         <v>37</v>
       </c>
       <c r="L460" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M460" t="s">
         <v>68</v>
@@ -21936,7 +21939,7 @@
         <v>113354</v>
       </c>
       <c r="E461" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F461">
         <v>4</v>
@@ -21957,7 +21960,7 @@
         <v>37</v>
       </c>
       <c r="L461" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M461" t="s">
         <v>66</v>
@@ -21995,13 +21998,13 @@
         <v>4</v>
       </c>
       <c r="J462" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K462" t="s">
         <v>48</v>
       </c>
       <c r="L462" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M462" t="s">
         <v>60</v>
@@ -22045,7 +22048,7 @@
         <v>48</v>
       </c>
       <c r="L463" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M463" t="s">
         <v>73</v>
@@ -22068,7 +22071,7 @@
         <v>114505</v>
       </c>
       <c r="E464" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F464">
         <v>4</v>
@@ -22083,13 +22086,13 @@
         <v>4</v>
       </c>
       <c r="J464" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K464" t="s">
         <v>48</v>
       </c>
       <c r="L464" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M464" t="s">
         <v>75</v>
@@ -22133,7 +22136,7 @@
         <v>21</v>
       </c>
       <c r="L465" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M465" t="s">
         <v>26</v>
@@ -22156,7 +22159,7 @@
         <v>112750</v>
       </c>
       <c r="E466" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F466">
         <v>4</v>
@@ -22177,7 +22180,7 @@
         <v>48</v>
       </c>
       <c r="L466" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M466" t="s">
         <v>73</v>
@@ -22200,7 +22203,7 @@
         <v>111791</v>
       </c>
       <c r="E467" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F467">
         <v>4</v>
@@ -22221,7 +22224,7 @@
         <v>48</v>
       </c>
       <c r="L467" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M467" t="s">
         <v>75</v>
@@ -22265,7 +22268,7 @@
         <v>37</v>
       </c>
       <c r="L468" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M468" t="s">
         <v>66</v>
@@ -22309,7 +22312,7 @@
         <v>37</v>
       </c>
       <c r="L469" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M469" t="s">
         <v>38</v>
@@ -22353,7 +22356,7 @@
         <v>37</v>
       </c>
       <c r="L470" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M470" t="s">
         <v>68</v>
@@ -22376,7 +22379,7 @@
         <v>112753</v>
       </c>
       <c r="E471" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F471">
         <v>4</v>
@@ -22397,7 +22400,7 @@
         <v>48</v>
       </c>
       <c r="L471" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N471" t="s">
         <v>73</v>
@@ -22420,7 +22423,7 @@
         <v>111794</v>
       </c>
       <c r="E472" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F472">
         <v>4</v>
@@ -22441,7 +22444,7 @@
         <v>48</v>
       </c>
       <c r="L472" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="O472" t="s">
         <v>60</v>
@@ -22464,7 +22467,7 @@
         <v>113753</v>
       </c>
       <c r="E473" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F473">
         <v>4</v>
@@ -22485,7 +22488,7 @@
         <v>48</v>
       </c>
       <c r="L473" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M473" t="s">
         <v>73</v>
@@ -22508,7 +22511,7 @@
         <v>112942</v>
       </c>
       <c r="E474" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F474">
         <v>6</v>
@@ -22529,7 +22532,7 @@
         <v>48</v>
       </c>
       <c r="L474" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N474" t="s">
         <v>56</v>
@@ -22552,7 +22555,7 @@
         <v>112942</v>
       </c>
       <c r="E475" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F475">
         <v>6</v>
@@ -22573,7 +22576,7 @@
         <v>48</v>
       </c>
       <c r="L475" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N475" t="s">
         <v>52</v>
@@ -22611,13 +22614,13 @@
         <v>3</v>
       </c>
       <c r="J476" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K476" t="s">
         <v>48</v>
       </c>
       <c r="L476" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N476" t="s">
         <v>75</v>
@@ -22655,13 +22658,13 @@
         <v>3</v>
       </c>
       <c r="J477" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K477" t="s">
         <v>48</v>
       </c>
       <c r="L477" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N477" t="s">
         <v>60</v>
@@ -22699,13 +22702,13 @@
         <v>3</v>
       </c>
       <c r="J478" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K478" t="s">
         <v>48</v>
       </c>
       <c r="L478" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N478" t="s">
         <v>73</v>
@@ -22714,106 +22717,103 @@
         <v>75</v>
       </c>
     </row>
-    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2022</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C479" t="s">
         <v>18</v>
       </c>
       <c r="D479">
-        <v>111353</v>
+        <v>111146</v>
       </c>
       <c r="E479" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="F479">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G479">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I479">
         <v>3</v>
       </c>
       <c r="J479" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="K479" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L479" t="s">
-        <v>426</v>
-      </c>
-      <c r="M479" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="O479" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2022</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C480" t="s">
         <v>18</v>
       </c>
       <c r="D480">
-        <v>111354</v>
+        <v>111142</v>
       </c>
       <c r="E480" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="F480">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I480">
         <v>3</v>
       </c>
       <c r="J480" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="K480" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L480" t="s">
-        <v>426</v>
-      </c>
-      <c r="N480" t="s">
-        <v>66</v>
-      </c>
-      <c r="P480" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="M480" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2022</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C481" t="s">
         <v>18</v>
       </c>
       <c r="D481">
-        <v>111355</v>
+        <v>111144</v>
       </c>
       <c r="E481" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="F481">
         <v>4</v>
@@ -22828,16 +22828,16 @@
         <v>3</v>
       </c>
       <c r="J481" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="K481" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L481" t="s">
-        <v>426</v>
-      </c>
-      <c r="N481" t="s">
-        <v>210</v>
+        <v>367</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -22854,7 +22854,7 @@
         <v>114307</v>
       </c>
       <c r="E482" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F482">
         <v>4</v>
@@ -22875,7 +22875,7 @@
         <v>37</v>
       </c>
       <c r="L482" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P482" t="s">
         <v>66</v>
@@ -22892,13 +22892,13 @@
         <v>1</v>
       </c>
       <c r="C483" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D483">
         <v>111143</v>
       </c>
       <c r="E483" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F483">
         <v>4</v>
@@ -22919,7 +22919,7 @@
         <v>21</v>
       </c>
       <c r="L483" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N483" t="s">
         <v>23</v>
@@ -22963,7 +22963,7 @@
         <v>37</v>
       </c>
       <c r="L484" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q484" t="s">
         <v>66</v>
@@ -23007,7 +23007,7 @@
         <v>37</v>
       </c>
       <c r="L485" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N485" t="s">
         <v>66</v>
@@ -23045,16 +23045,16 @@
         <v>3</v>
       </c>
       <c r="J486" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K486" t="s">
         <v>37</v>
       </c>
       <c r="L486" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N486" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="487" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -23092,10 +23092,10 @@
         <v>37</v>
       </c>
       <c r="L487" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O487" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -23127,16 +23127,16 @@
         <v>4</v>
       </c>
       <c r="J488" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K488" t="s">
         <v>37</v>
       </c>
       <c r="L488" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M488" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O488" t="s">
         <v>66</v>
@@ -23177,13 +23177,13 @@
         <v>37</v>
       </c>
       <c r="L489" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M489" t="s">
         <v>66</v>
       </c>
       <c r="O489" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -23221,7 +23221,7 @@
         <v>21</v>
       </c>
       <c r="L490" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M490" t="s">
         <v>135</v>
@@ -23265,7 +23265,7 @@
         <v>37</v>
       </c>
       <c r="L491" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M491" t="s">
         <v>66</v>
@@ -23309,7 +23309,7 @@
         <v>37</v>
       </c>
       <c r="L492" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M492" t="s">
         <v>68</v>
@@ -23353,7 +23353,7 @@
         <v>37</v>
       </c>
       <c r="L493" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N493" t="s">
         <v>68</v>
@@ -23376,7 +23376,7 @@
         <v>111354</v>
       </c>
       <c r="E494" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F494">
         <v>4</v>
@@ -23397,7 +23397,7 @@
         <v>37</v>
       </c>
       <c r="L494" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M494" t="s">
         <v>39</v>
@@ -23441,7 +23441,7 @@
         <v>21</v>
       </c>
       <c r="L495" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M495" t="s">
         <v>26</v>
@@ -23485,10 +23485,10 @@
         <v>21</v>
       </c>
       <c r="L496" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O496" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -23526,7 +23526,7 @@
         <v>21</v>
       </c>
       <c r="L497" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M497" t="s">
         <v>45</v>
@@ -23567,7 +23567,7 @@
         <v>37</v>
       </c>
       <c r="L498" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P498" t="s">
         <v>38</v>
@@ -23611,7 +23611,7 @@
         <v>37</v>
       </c>
       <c r="L499" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O499" t="s">
         <v>38</v>
@@ -23634,7 +23634,7 @@
         <v>114307</v>
       </c>
       <c r="E500" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F500">
         <v>4</v>
@@ -23655,7 +23655,7 @@
         <v>37</v>
       </c>
       <c r="L500" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P500" t="s">
         <v>68</v>
@@ -23699,7 +23699,7 @@
         <v>48</v>
       </c>
       <c r="L501" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M501" t="s">
         <v>75</v>
@@ -23743,7 +23743,7 @@
         <v>48</v>
       </c>
       <c r="L502" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O502" t="s">
         <v>73</v>
@@ -23781,13 +23781,13 @@
         <v>3</v>
       </c>
       <c r="J503" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K503" t="s">
         <v>48</v>
       </c>
       <c r="L503" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M503" t="s">
         <v>72</v>
@@ -23810,7 +23810,7 @@
         <v>111794</v>
       </c>
       <c r="E504" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F504">
         <v>4</v>
@@ -23831,7 +23831,7 @@
         <v>48</v>
       </c>
       <c r="L504" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M504" t="s">
         <v>60</v>
@@ -23854,7 +23854,7 @@
         <v>112753</v>
       </c>
       <c r="E505" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F505">
         <v>4</v>
@@ -23869,13 +23869,13 @@
         <v>3</v>
       </c>
       <c r="J505" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K505" t="s">
         <v>48</v>
       </c>
       <c r="L505" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O505" t="s">
         <v>60</v>
@@ -23898,7 +23898,7 @@
         <v>111143</v>
       </c>
       <c r="E506" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F506">
         <v>4</v>
@@ -23919,7 +23919,7 @@
         <v>37</v>
       </c>
       <c r="L506" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q506" t="s">
         <v>38</v>
@@ -23942,7 +23942,7 @@
         <v>113143</v>
       </c>
       <c r="E507" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F507">
         <v>4</v>
@@ -23957,13 +23957,13 @@
         <v>3</v>
       </c>
       <c r="J507" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K507" t="s">
         <v>37</v>
       </c>
       <c r="L507" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q507" t="s">
         <v>66</v>
@@ -23986,7 +23986,7 @@
         <v>114102</v>
       </c>
       <c r="E508" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F508">
         <v>4</v>
@@ -24007,7 +24007,7 @@
         <v>21</v>
       </c>
       <c r="L508" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R508" t="s">
         <v>45</v>
@@ -24048,16 +24048,16 @@
         <v>37</v>
       </c>
       <c r="L509" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N509" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R509" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -24065,13 +24065,13 @@
         <v>1</v>
       </c>
       <c r="C510" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D510">
-        <v>112143</v>
+        <v>111149</v>
       </c>
       <c r="E510" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="F510">
         <v>4</v>
@@ -24086,22 +24086,19 @@
         <v>3</v>
       </c>
       <c r="J510" t="s">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="K510" t="s">
         <v>21</v>
       </c>
       <c r="L510" t="s">
-        <v>387</v>
-      </c>
-      <c r="M510" t="s">
-        <v>388</v>
-      </c>
-      <c r="O510" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="R510" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -24109,10 +24106,10 @@
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D511">
-        <v>112147</v>
+        <v>111147</v>
       </c>
       <c r="E511" t="s">
         <v>30</v>
@@ -24130,19 +24127,22 @@
         <v>3</v>
       </c>
       <c r="J511" t="s">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="K511" t="s">
         <v>21</v>
       </c>
       <c r="L511" t="s">
-        <v>396</v>
-      </c>
-      <c r="P511" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="512" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="N511" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q511" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -24150,10 +24150,10 @@
         <v>1</v>
       </c>
       <c r="C512" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D512">
-        <v>112148</v>
+        <v>111148</v>
       </c>
       <c r="E512" t="s">
         <v>152</v>
@@ -24171,16 +24171,19 @@
         <v>3</v>
       </c>
       <c r="J512" t="s">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="K512" t="s">
         <v>21</v>
       </c>
       <c r="L512" t="s">
-        <v>438</v>
-      </c>
-      <c r="M512" t="s">
-        <v>439</v>
+        <v>434</v>
+      </c>
+      <c r="P512" t="s">
+        <v>384</v>
+      </c>
+      <c r="R512" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
